--- a/Results/Categorization/plsa-partial-ner-elmo_ori-money.xlsx
+++ b/Results/Categorization/plsa-partial-ner-elmo_ori-money.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3231" uniqueCount="1787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3233" uniqueCount="1792">
   <si>
     <t>id</t>
   </si>
@@ -4036,7 +4036,7 @@
     <t>AMBIENCE|FOOD</t>
   </si>
   <si>
-    <t>FOOD|SERVICE|FOOD|FOOD</t>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|FOOD</t>
   </si>
   <si>
     <t>SERVICE|PRICES</t>
@@ -4078,7 +4078,10 @@
     <t>AMBIENCE|AMBIENCE|PRICES</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES|AMBIENCE|FOOD|PRICES</t>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES|FOOD|PRICES</t>
   </si>
   <si>
     <t>FOOD|FOOD|FOOD</t>
@@ -4123,6 +4126,9 @@
     <t>PRICES|SERVICE</t>
   </si>
   <si>
+    <t>FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
     <t>FOOD|SERVICE</t>
   </si>
   <si>
@@ -4162,180 +4168,186 @@
     <t>SERVICE|AMBIENCE|SERVICE</t>
   </si>
   <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|PRICES|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES|PRICES|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|PRICES|PRICES|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
     <t>FOOD|FOOD|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|PRICES|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|PRICES|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|PRICES|PRICES|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
     <t>AMBIENCE|PRICES|FOOD|PRICES</t>
   </si>
   <si>
+    <t>FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
     <t>SERVICE|AMBIENCE|AMBIENCE|PRICES|FOOD</t>
   </si>
   <si>
@@ -4363,27 +4375,24 @@
     <t>SERVICE|PRICES|FOOD|PRICES</t>
   </si>
   <si>
-    <t>AMBIENCE|SERVICE|PRICES|SERVICE|SERVICE</t>
+    <t>AMBIENCE|AMBIENCE|SERVICE|PRICES|SERVICE|SERVICE</t>
   </si>
   <si>
     <t>AMBIENCE|FOOD|PRICES|FOOD</t>
   </si>
   <si>
+    <t>AMBIENCE|PRICES|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
     <t>FOOD|AMBIENCE|PRICES</t>
   </si>
   <si>
-    <t>AMBIENCE|PRICES|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
     <t>place|rude|staff|like</t>
   </si>
   <si>
@@ -4396,7 +4405,7 @@
     <t>good|wine</t>
   </si>
   <si>
-    <t>cart|attendant|lotus|leaf</t>
+    <t>cart|attendant|lotus|leaf|rice|rice</t>
   </si>
   <si>
     <t>rude</t>
@@ -4447,7 +4456,7 @@
     <t>menu|worth</t>
   </si>
   <si>
-    <t>food|$6</t>
+    <t>food|$6!-</t>
   </si>
   <si>
     <t>great|dish</t>
@@ -4468,10 +4477,10 @@
     <t>nice|best|would</t>
   </si>
   <si>
-    <t>idea|view|chart|house</t>
-  </si>
-  <si>
-    <t>service|great|great|great|price|even|food|reasonable</t>
+    <t>river|weehawken|idea|top|view|chart|house</t>
+  </si>
+  <si>
+    <t>service|great|great|great|price|food|reasonable</t>
   </si>
   <si>
     <t>lava|cake|dessert</t>
@@ -4534,7 +4543,7 @@
     <t>pizza|like</t>
   </si>
   <si>
-    <t>toppings|$20,</t>
+    <t>toppings|$20!-|$3!-</t>
   </si>
   <si>
     <t>food|wait</t>
@@ -4546,6 +4555,9 @@
     <t>service|great|pizza</t>
   </si>
   <si>
+    <t>end|block</t>
+  </si>
+  <si>
     <t>place|food</t>
   </si>
   <si>
@@ -4591,10 +4603,10 @@
     <t>make</t>
   </si>
   <si>
-    <t>moules|ravioli</t>
-  </si>
-  <si>
-    <t>price|$8.00...just</t>
+    <t>moules|lobster|ravioli</t>
+  </si>
+  <si>
+    <t>price|$8.00!-</t>
   </si>
   <si>
     <t>price|wine|well|always</t>
@@ -4624,9 +4636,6 @@
     <t>tuna|wasabe|potatoes</t>
   </si>
   <si>
-    <t>even|atmosphere</t>
-  </si>
-  <si>
     <t>service|great|great|food</t>
   </si>
   <si>
@@ -4639,7 +4648,7 @@
     <t>staff|best|wait</t>
   </si>
   <si>
-    <t>food|restaurant|best</t>
+    <t>food|restaurant|best|salad</t>
   </si>
   <si>
     <t>would|would</t>
@@ -4660,7 +4669,7 @@
     <t>though|restaurant</t>
   </si>
   <si>
-    <t>though|even|restaurant|always</t>
+    <t>though|restaurant|always</t>
   </si>
   <si>
     <t>good|though|food</t>
@@ -4669,6 +4678,9 @@
     <t>great|decor</t>
   </si>
   <si>
+    <t>atmosphere|salad</t>
+  </si>
+  <si>
     <t>food|food|delicious</t>
   </si>
   <si>
@@ -4684,13 +4696,16 @@
     <t>workers|bagel|cream|cheese</t>
   </si>
   <si>
-    <t>roll|mayo</t>
+    <t>lobster|roll|mayo|lobster</t>
+  </si>
+  <si>
+    <t>pizza|salad</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>scallion|pancakes|dumplings|nothing</t>
+    <t>scallion|pancakes|dumplings</t>
   </si>
   <si>
     <t>service|good|restaurant</t>
@@ -4708,7 +4723,10 @@
     <t>food|restaurant|delicious</t>
   </si>
   <si>
-    <t>hats</t>
+    <t>hats|chef</t>
+  </si>
+  <si>
+    <t>delicious|salad</t>
   </si>
   <si>
     <t>like|atmosphere</t>
@@ -4717,7 +4735,7 @@
     <t>good|though</t>
   </si>
   <si>
-    <t>great|though</t>
+    <t>great|though|salad</t>
   </si>
   <si>
     <t>good|really</t>
@@ -4729,7 +4747,7 @@
     <t>good|well</t>
   </si>
   <si>
-    <t>food|menu|$18</t>
+    <t>food|menu|$18!-</t>
   </si>
   <si>
     <t>service|great|price|food</t>
@@ -4738,237 +4756,240 @@
     <t>atmosphere|wait</t>
   </si>
   <si>
-    <t>price|reasonable|dish|$3-6</t>
+    <t>price|reasonable|dish|$3-6!-</t>
   </si>
   <si>
     <t>great|well</t>
   </si>
   <si>
+    <t>nice|salad</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>place|food|staff|delicious</t>
+  </si>
+  <si>
+    <t>even|make</t>
+  </si>
+  <si>
+    <t>service|good|food</t>
+  </si>
+  <si>
+    <t>service|service|good|good|food</t>
+  </si>
+  <si>
+    <t>place|wine|atmosphere|dish</t>
+  </si>
+  <si>
+    <t>place|good|pizza|nice</t>
+  </si>
+  <si>
+    <t>though|delicious</t>
+  </si>
+  <si>
+    <t>bombay|beer</t>
+  </si>
+  <si>
+    <t>place|nice</t>
+  </si>
+  <si>
+    <t>like|like</t>
+  </si>
+  <si>
+    <t>service|food|restaurant</t>
+  </si>
+  <si>
+    <t>menu|dish</t>
+  </si>
+  <si>
+    <t>place|good</t>
+  </si>
+  <si>
+    <t>place|service|pizza|wine|really</t>
+  </si>
+  <si>
+    <t>price|restaurant|wine|menu</t>
+  </si>
+  <si>
+    <t>wine|$70!-|$30!-</t>
+  </si>
+  <si>
+    <t>service|price|would</t>
+  </si>
+  <si>
+    <t>food|make</t>
+  </si>
+  <si>
+    <t>meals|bland|rosemary|orange|flavoring</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>place|nice|staff|would|wait|never</t>
+  </si>
+  <si>
+    <t>someone|dessert</t>
+  </si>
+  <si>
+    <t>service|never|delicious</t>
+  </si>
+  <si>
+    <t>tuna|tartar|appetizer</t>
+  </si>
+  <si>
+    <t>place|service</t>
+  </si>
+  <si>
+    <t>service|great|great|food|restaurant|atmosphere</t>
+  </si>
+  <si>
+    <t>dining|room|music</t>
+  </si>
+  <si>
+    <t>service|staff|menu</t>
+  </si>
+  <si>
+    <t>service|staff</t>
+  </si>
+  <si>
+    <t>place|service|great|special</t>
+  </si>
+  <si>
+    <t>great|good|price|price|food|food|food|food|food|like|menu</t>
+  </si>
+  <si>
+    <t>really|make</t>
+  </si>
+  <si>
+    <t>service|though|food|wait</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>ambiance|boot</t>
+  </si>
+  <si>
+    <t>service|great|nice</t>
+  </si>
+  <si>
+    <t>like|atmosphere|special</t>
+  </si>
+  <si>
+    <t>staff|well</t>
+  </si>
+  <si>
+    <t>service|price|food</t>
+  </si>
+  <si>
+    <t>price|food|wine</t>
+  </si>
+  <si>
+    <t>secret|room</t>
+  </si>
+  <si>
+    <t>great|staff</t>
+  </si>
+  <si>
+    <t>service|great|always</t>
+  </si>
+  <si>
+    <t>rude|wait</t>
+  </si>
+  <si>
+    <t>place|service|price|price|food|like|make|worth</t>
+  </si>
+  <si>
+    <t>best|dish</t>
+  </si>
+  <si>
+    <t>service|though|nice|decor</t>
+  </si>
+  <si>
+    <t>though|nice|staff|wait</t>
+  </si>
+  <si>
+    <t>service|rude</t>
+  </si>
+  <si>
+    <t>rude|restaurant</t>
+  </si>
+  <si>
+    <t>like|$7!-</t>
+  </si>
+  <si>
+    <t>seats|wall|benches</t>
+  </si>
+  <si>
+    <t>great|nice|staff</t>
+  </si>
+  <si>
+    <t>friendly|staff|wait</t>
+  </si>
+  <si>
+    <t>service|good|good</t>
+  </si>
+  <si>
+    <t>price|restaurant</t>
+  </si>
+  <si>
+    <t>good|price|though|even|food</t>
+  </si>
+  <si>
+    <t>good|price|though|$24!-</t>
+  </si>
+  <si>
+    <t>special|wait</t>
+  </si>
+  <si>
+    <t>food|nice|wait</t>
+  </si>
+  <si>
+    <t>great|$10!-</t>
+  </si>
+  <si>
+    <t>price|wine</t>
+  </si>
+  <si>
+    <t>great|atmosphere|would</t>
+  </si>
+  <si>
+    <t>place|great|great|good|food</t>
+  </si>
+  <si>
+    <t>staff|like|make|wait</t>
+  </si>
+  <si>
+    <t>service|wait</t>
+  </si>
+  <si>
+    <t>good|wait|wait</t>
+  </si>
+  <si>
+    <t>place|great|good|staff|would</t>
+  </si>
+  <si>
+    <t>great|price|food|really</t>
+  </si>
+  <si>
+    <t>service|restaurant</t>
+  </si>
+  <si>
+    <t>gentleman|manager|table|smile|order</t>
+  </si>
+  <si>
+    <t>great|price|food</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>place|food|staff|delicious</t>
-  </si>
-  <si>
-    <t>even|make</t>
-  </si>
-  <si>
-    <t>service|good|food</t>
-  </si>
-  <si>
-    <t>service|service|good|good|food</t>
-  </si>
-  <si>
-    <t>place|wine|atmosphere|dish</t>
-  </si>
-  <si>
-    <t>place|good|pizza|nice</t>
-  </si>
-  <si>
-    <t>though|delicious</t>
-  </si>
-  <si>
-    <t>beer</t>
-  </si>
-  <si>
-    <t>place|nice</t>
-  </si>
-  <si>
-    <t>like|like</t>
-  </si>
-  <si>
-    <t>service|food|restaurant</t>
-  </si>
-  <si>
-    <t>menu|dish</t>
-  </si>
-  <si>
-    <t>place|good</t>
-  </si>
-  <si>
-    <t>place|service|pizza|wine|really</t>
-  </si>
-  <si>
-    <t>price|restaurant|wine|menu</t>
-  </si>
-  <si>
-    <t>wine|$70+</t>
-  </si>
-  <si>
-    <t>service|price|would</t>
-  </si>
-  <si>
-    <t>food|make</t>
-  </si>
-  <si>
-    <t>meals|bland|rosemary|orange|flavoring</t>
-  </si>
-  <si>
-    <t>fish</t>
-  </si>
-  <si>
-    <t>place|nice|staff|would|wait|never</t>
-  </si>
-  <si>
-    <t>someone|dessert</t>
-  </si>
-  <si>
-    <t>service|never|delicious</t>
-  </si>
-  <si>
-    <t>tuna|tartar|appetizer</t>
-  </si>
-  <si>
-    <t>place|service</t>
-  </si>
-  <si>
-    <t>service|great|great|food|restaurant|atmosphere</t>
-  </si>
-  <si>
-    <t>dining|room|music</t>
-  </si>
-  <si>
-    <t>service|staff|menu</t>
-  </si>
-  <si>
-    <t>service|staff</t>
-  </si>
-  <si>
-    <t>place|service|great|special</t>
-  </si>
-  <si>
-    <t>great|good|price|price|food|food|food|food|food|like|menu</t>
-  </si>
-  <si>
-    <t>really|make</t>
-  </si>
-  <si>
-    <t>service|though|food|wait</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>ambiance|boot</t>
-  </si>
-  <si>
-    <t>service|great|nice</t>
-  </si>
-  <si>
-    <t>like|atmosphere|special</t>
-  </si>
-  <si>
-    <t>staff|well</t>
-  </si>
-  <si>
-    <t>service|price|food</t>
-  </si>
-  <si>
-    <t>price|food|wine</t>
-  </si>
-  <si>
-    <t>secret|room</t>
-  </si>
-  <si>
-    <t>great|staff</t>
-  </si>
-  <si>
-    <t>service|great|always</t>
-  </si>
-  <si>
-    <t>rude|wait</t>
-  </si>
-  <si>
-    <t>place|service|price|price|food|like|make|worth</t>
-  </si>
-  <si>
-    <t>best|dish</t>
-  </si>
-  <si>
-    <t>service|though|nice|decor</t>
-  </si>
-  <si>
-    <t>though|nice|staff|wait</t>
-  </si>
-  <si>
-    <t>service|rude</t>
-  </si>
-  <si>
-    <t>rude|restaurant</t>
-  </si>
-  <si>
-    <t>like|$7)</t>
-  </si>
-  <si>
-    <t>seats|wall|benches</t>
-  </si>
-  <si>
-    <t>great|nice|staff</t>
-  </si>
-  <si>
-    <t>friendly|staff|wait</t>
-  </si>
-  <si>
-    <t>service|good|good</t>
-  </si>
-  <si>
-    <t>price|restaurant</t>
-  </si>
-  <si>
-    <t>good|price|though|even|food</t>
-  </si>
-  <si>
-    <t>good|price|though|$24</t>
-  </si>
-  <si>
-    <t>special|wait</t>
-  </si>
-  <si>
-    <t>food|nice|wait</t>
-  </si>
-  <si>
-    <t>great|$10.</t>
-  </si>
-  <si>
-    <t>price|wine</t>
-  </si>
-  <si>
-    <t>great|atmosphere|would</t>
-  </si>
-  <si>
-    <t>place|great|great|good|food</t>
-  </si>
-  <si>
-    <t>staff|like|make|wait</t>
-  </si>
-  <si>
-    <t>service|wait</t>
-  </si>
-  <si>
-    <t>good|wait|wait</t>
-  </si>
-  <si>
-    <t>place|great|good|staff|would</t>
-  </si>
-  <si>
-    <t>great|price|food|really</t>
-  </si>
-  <si>
-    <t>service|restaurant</t>
-  </si>
-  <si>
-    <t>gentleman|table|smile|order</t>
-  </si>
-  <si>
-    <t>great|price|food</t>
-  </si>
-  <si>
     <t>nice|staff|really</t>
   </si>
   <si>
@@ -4984,7 +5005,7 @@
     <t>garden|area|herb|garden</t>
   </si>
   <si>
-    <t>place|special|money.</t>
+    <t>place|special</t>
   </si>
   <si>
     <t>nice|wait</t>
@@ -4996,22 +5017,19 @@
     <t>price|pizza|even</t>
   </si>
   <si>
-    <t>wait|money</t>
-  </si>
-  <si>
     <t>place|great</t>
   </si>
   <si>
     <t>place|price|worth</t>
   </si>
   <si>
-    <t>cheese|sandwich|business</t>
+    <t>cheese|sandwich|manager|business</t>
   </si>
   <si>
     <t>place|even|well</t>
   </si>
   <si>
-    <t>great|like</t>
+    <t>great|like|100 dollar!-</t>
   </si>
   <si>
     <t>great|worth</t>
@@ -5023,13 +5041,13 @@
     <t>price|food</t>
   </si>
   <si>
-    <t>staff|wait|she's-way-cuter-than-me-that-b@#$*</t>
+    <t>staff|wait|$*!-</t>
   </si>
   <si>
     <t>best|atmosphere</t>
   </si>
   <si>
-    <t>great|great|$8.50</t>
+    <t>great|great|$8.50!-</t>
   </si>
   <si>
     <t>good|price|make|reasonable</t>
@@ -5077,9 +5095,6 @@
     <t>place|great|great|price|food|decor</t>
   </si>
   <si>
-    <t>place|food|money.</t>
-  </si>
-  <si>
     <t>great|good|price|food|wine|reasonable</t>
   </si>
   <si>
@@ -5092,7 +5107,7 @@
     <t>good|atmosphere</t>
   </si>
   <si>
-    <t>jukebox|everything|opera|strokes</t>
+    <t>jukebox|opera|strokes</t>
   </si>
   <si>
     <t>drinks|half</t>
@@ -5101,7 +5116,7 @@
     <t>toons|redone|space</t>
   </si>
   <si>
-    <t>delight|seating|yorkie</t>
+    <t>location|delight|seating|yorkie</t>
   </si>
   <si>
     <t>great|price|food|reasonable</t>
@@ -5110,7 +5125,7 @@
     <t>good|price|food</t>
   </si>
   <si>
-    <t>jazz|point</t>
+    <t>jazz|duo|point</t>
   </si>
   <si>
     <t>service|great|good|price|food</t>
@@ -5131,16 +5146,16 @@
     <t>price|food|nice|decor|reasonable</t>
   </si>
   <si>
-    <t>sushi|$20</t>
-  </si>
-  <si>
-    <t>price|$15....</t>
+    <t>sushi|$20!-</t>
+  </si>
+  <si>
+    <t>price|$15!-</t>
   </si>
   <si>
     <t>restaurant|really</t>
   </si>
   <si>
-    <t>good|though|$60</t>
+    <t>good|though|$60!-</t>
   </si>
   <si>
     <t>place|worth</t>
@@ -5155,19 +5170,19 @@
     <t>though|restaurant|nice</t>
   </si>
   <si>
-    <t>dinner|$400.00</t>
+    <t>dinner|$400.00!-</t>
   </si>
   <si>
     <t>nice|really</t>
   </si>
   <si>
-    <t>plate|guacamole|$11</t>
+    <t>plate|guacamole|$11!-</t>
   </si>
   <si>
     <t>place|good|food</t>
   </si>
   <si>
-    <t>water|table|voss|bottles|water|piece|$8</t>
+    <t>water|table|voss|bottles|water|piece|$8!-</t>
   </si>
   <si>
     <t>good|price|friendly|food</t>
@@ -5191,10 +5206,10 @@
     <t>nice|atmosphere|make</t>
   </si>
   <si>
-    <t>service|price|dish|$10.</t>
-  </si>
-  <si>
-    <t>wine|dinner|$500</t>
+    <t>service|price|dish|$10!-</t>
+  </si>
+  <si>
+    <t>wine|dinner|$500!-</t>
   </si>
   <si>
     <t>environment|name</t>
@@ -5206,19 +5221,16 @@
     <t>restaurant|restaurant</t>
   </si>
   <si>
-    <t>environment|guys|trophy|wives|escorts</t>
-  </si>
-  <si>
-    <t>service|$500.</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>drinks|$14</t>
-  </si>
-  <si>
-    <t>would|dinner|$55</t>
+    <t>environment|lot|guys|trophy|wives|escorts</t>
+  </si>
+  <si>
+    <t>service|$500!-</t>
+  </si>
+  <si>
+    <t>drinks|$14!-</t>
+  </si>
+  <si>
+    <t>would|dinner|$55!-</t>
   </si>
   <si>
     <t>good|food|would|dinner</t>
@@ -5227,13 +5239,13 @@
     <t>would|dinner</t>
   </si>
   <si>
-    <t>restaurant|never|money.</t>
-  </si>
-  <si>
-    <t>place|price|restaurant|would|$25),</t>
-  </si>
-  <si>
-    <t>place|food|$</t>
+    <t>restaurant|never</t>
+  </si>
+  <si>
+    <t>place|price|restaurant|would|$25!-</t>
+  </si>
+  <si>
+    <t>place|food|$!-</t>
   </si>
   <si>
     <t>worth</t>
@@ -5242,34 +5254,37 @@
     <t>place|dinner</t>
   </si>
   <si>
-    <t>stone|bowl|$2</t>
-  </si>
-  <si>
-    <t>menu|$29</t>
+    <t>stone|bowl|$2!-</t>
+  </si>
+  <si>
+    <t>menu|$29!-</t>
   </si>
   <si>
     <t>great|good|price|reasonable</t>
   </si>
   <si>
-    <t>service|rude|even|well|$500</t>
-  </si>
-  <si>
-    <t>service|great|good</t>
+    <t>service|rude|even|well|$500!-</t>
+  </si>
+  <si>
+    <t>service|great|good|salad</t>
   </si>
   <si>
     <t>good|price|food|would</t>
   </si>
   <si>
-    <t>restaurant|never|$24</t>
+    <t>restaurant|never|$24!-</t>
   </si>
   <si>
     <t>menu|would|reasonable</t>
   </si>
   <si>
-    <t>service|$60</t>
+    <t>service|$60!-</t>
   </si>
   <si>
     <t>place|price</t>
+  </si>
+  <si>
+    <t>price|salad</t>
   </si>
   <si>
     <t>negative</t>
@@ -5781,10 +5796,10 @@
         <v>1337</v>
       </c>
       <c r="G2" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="H2" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5810,7 +5825,7 @@
         <v>933</v>
       </c>
       <c r="H3" t="s">
-        <v>1753</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5833,10 +5848,10 @@
         <v>1338</v>
       </c>
       <c r="G4" t="s">
-        <v>1457</v>
+        <v>1460</v>
       </c>
       <c r="H4" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5859,10 +5874,10 @@
         <v>1285</v>
       </c>
       <c r="G5" t="s">
-        <v>1458</v>
+        <v>1461</v>
       </c>
       <c r="H5" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5885,10 +5900,10 @@
         <v>1339</v>
       </c>
       <c r="G6" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="H6" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5911,10 +5926,10 @@
         <v>1340</v>
       </c>
       <c r="G7" t="s">
-        <v>1460</v>
+        <v>1463</v>
       </c>
       <c r="H7" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5937,10 +5952,10 @@
         <v>1276</v>
       </c>
       <c r="G8" t="s">
-        <v>1461</v>
+        <v>1464</v>
       </c>
       <c r="H8" t="s">
-        <v>1756</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5963,10 +5978,10 @@
         <v>1341</v>
       </c>
       <c r="G9" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="H9" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5989,10 +6004,10 @@
         <v>1342</v>
       </c>
       <c r="G10" t="s">
-        <v>1463</v>
+        <v>1466</v>
       </c>
       <c r="H10" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6015,10 +6030,10 @@
         <v>1294</v>
       </c>
       <c r="G11" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="H11" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6044,7 +6059,7 @@
         <v>933</v>
       </c>
       <c r="H12" t="s">
-        <v>1756</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6067,10 +6082,10 @@
         <v>1294</v>
       </c>
       <c r="G13" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="H13" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6093,10 +6108,10 @@
         <v>1343</v>
       </c>
       <c r="G14" t="s">
-        <v>1465</v>
+        <v>1468</v>
       </c>
       <c r="H14" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6119,10 +6134,10 @@
         <v>1344</v>
       </c>
       <c r="G15" t="s">
-        <v>1466</v>
+        <v>1469</v>
       </c>
       <c r="H15" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6145,10 +6160,10 @@
         <v>1345</v>
       </c>
       <c r="G16" t="s">
-        <v>1467</v>
+        <v>1470</v>
       </c>
       <c r="H16" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6171,10 +6186,10 @@
         <v>1343</v>
       </c>
       <c r="G17" t="s">
-        <v>1468</v>
+        <v>1471</v>
       </c>
       <c r="H17" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6197,10 +6212,10 @@
         <v>1346</v>
       </c>
       <c r="G18" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="H18" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6226,7 +6241,7 @@
         <v>933</v>
       </c>
       <c r="H19" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6249,10 +6264,10 @@
         <v>1346</v>
       </c>
       <c r="G20" t="s">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="H20" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6278,7 +6293,7 @@
         <v>1120</v>
       </c>
       <c r="H21" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6304,7 +6319,7 @@
         <v>947</v>
       </c>
       <c r="H22" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6327,10 +6342,10 @@
         <v>1347</v>
       </c>
       <c r="G23" t="s">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="H23" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6353,10 +6368,10 @@
         <v>1339</v>
       </c>
       <c r="G24" t="s">
-        <v>1472</v>
+        <v>1475</v>
       </c>
       <c r="H24" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6382,7 +6397,7 @@
         <v>947</v>
       </c>
       <c r="H25" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6408,7 +6423,7 @@
         <v>968</v>
       </c>
       <c r="H26" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6434,7 +6449,7 @@
         <v>996</v>
       </c>
       <c r="H27" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6457,10 +6472,10 @@
         <v>1285</v>
       </c>
       <c r="G28" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
       <c r="H28" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6483,10 +6498,10 @@
         <v>1348</v>
       </c>
       <c r="G29" t="s">
-        <v>1474</v>
+        <v>1477</v>
       </c>
       <c r="H29" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6509,10 +6524,10 @@
         <v>1349</v>
       </c>
       <c r="G30" t="s">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="H30" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6535,10 +6550,10 @@
         <v>1350</v>
       </c>
       <c r="G31" t="s">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="H31" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6561,10 +6576,10 @@
         <v>1350</v>
       </c>
       <c r="G32" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="H32" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6587,10 +6602,10 @@
         <v>1339</v>
       </c>
       <c r="G33" t="s">
-        <v>1478</v>
+        <v>1481</v>
       </c>
       <c r="H33" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6613,10 +6628,10 @@
         <v>1351</v>
       </c>
       <c r="G34" t="s">
-        <v>1479</v>
+        <v>1482</v>
       </c>
       <c r="H34" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6639,10 +6654,10 @@
         <v>1285</v>
       </c>
       <c r="G35" t="s">
-        <v>1480</v>
+        <v>1483</v>
       </c>
       <c r="H35" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6665,10 +6680,10 @@
         <v>1346</v>
       </c>
       <c r="G36" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="H36" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6691,10 +6706,10 @@
         <v>1285</v>
       </c>
       <c r="G37" t="s">
-        <v>1458</v>
+        <v>1461</v>
       </c>
       <c r="H37" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6717,10 +6732,10 @@
         <v>1352</v>
       </c>
       <c r="G38" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="H38" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6743,10 +6758,10 @@
         <v>1353</v>
       </c>
       <c r="G39" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="H39" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6766,13 +6781,13 @@
         <v>1285</v>
       </c>
       <c r="F40" t="s">
-        <v>1344</v>
+        <v>1354</v>
       </c>
       <c r="G40" t="s">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="H40" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6792,13 +6807,13 @@
         <v>1280</v>
       </c>
       <c r="F41" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="G41" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="H41" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6818,13 +6833,13 @@
         <v>1278</v>
       </c>
       <c r="F42" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G42" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
       <c r="H42" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6844,13 +6859,13 @@
         <v>1285</v>
       </c>
       <c r="F43" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="G43" t="s">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="H43" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6876,7 +6891,7 @@
         <v>968</v>
       </c>
       <c r="H44" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6902,7 +6917,7 @@
         <v>933</v>
       </c>
       <c r="H45" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6928,7 +6943,7 @@
         <v>933</v>
       </c>
       <c r="H46" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -6951,10 +6966,10 @@
         <v>1352</v>
       </c>
       <c r="G47" t="s">
-        <v>1488</v>
+        <v>1491</v>
       </c>
       <c r="H47" t="s">
-        <v>1753</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -6974,13 +6989,13 @@
         <v>1279</v>
       </c>
       <c r="F48" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G48" t="s">
-        <v>1489</v>
+        <v>1492</v>
       </c>
       <c r="H48" t="s">
-        <v>1753</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7000,13 +7015,13 @@
         <v>1282</v>
       </c>
       <c r="F49" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="G49" t="s">
-        <v>1490</v>
+        <v>1493</v>
       </c>
       <c r="H49" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7029,10 +7044,10 @@
         <v>1285</v>
       </c>
       <c r="G50" t="s">
-        <v>1491</v>
+        <v>1494</v>
       </c>
       <c r="H50" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7052,13 +7067,13 @@
         <v>1282</v>
       </c>
       <c r="F51" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="G51" t="s">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="H51" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7078,13 +7093,13 @@
         <v>1278</v>
       </c>
       <c r="F52" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="G52" t="s">
-        <v>1493</v>
+        <v>1496</v>
       </c>
       <c r="H52" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7107,10 +7122,10 @@
         <v>1343</v>
       </c>
       <c r="G53" t="s">
-        <v>1494</v>
+        <v>1497</v>
       </c>
       <c r="H53" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7130,13 +7145,13 @@
         <v>1277</v>
       </c>
       <c r="F54" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G54" t="s">
-        <v>1495</v>
+        <v>1498</v>
       </c>
       <c r="H54" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7156,13 +7171,13 @@
         <v>1290</v>
       </c>
       <c r="F55" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="G55" t="s">
-        <v>1496</v>
+        <v>1499</v>
       </c>
       <c r="H55" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7182,13 +7197,13 @@
         <v>1291</v>
       </c>
       <c r="F56" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="G56" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="H56" t="s">
-        <v>1765</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7208,13 +7223,13 @@
         <v>1276</v>
       </c>
       <c r="F57" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G57" t="s">
-        <v>1498</v>
+        <v>1501</v>
       </c>
       <c r="H57" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7234,13 +7249,13 @@
         <v>1279</v>
       </c>
       <c r="F58" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="G58" t="s">
-        <v>1499</v>
+        <v>1502</v>
       </c>
       <c r="H58" t="s">
-        <v>1766</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7260,13 +7275,13 @@
         <v>1292</v>
       </c>
       <c r="F59" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="G59" t="s">
-        <v>1500</v>
+        <v>1503</v>
       </c>
       <c r="H59" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7289,10 +7304,10 @@
         <v>1276</v>
       </c>
       <c r="G60" t="s">
-        <v>1461</v>
+        <v>1464</v>
       </c>
       <c r="H60" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7318,7 +7333,7 @@
         <v>933</v>
       </c>
       <c r="H61" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7338,13 +7353,13 @@
         <v>1290</v>
       </c>
       <c r="F62" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="G62" t="s">
-        <v>1501</v>
+        <v>1504</v>
       </c>
       <c r="H62" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7364,13 +7379,13 @@
         <v>1276</v>
       </c>
       <c r="F63" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="G63" t="s">
-        <v>1502</v>
+        <v>1505</v>
       </c>
       <c r="H63" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7393,10 +7408,10 @@
         <v>1351</v>
       </c>
       <c r="G64" t="s">
-        <v>1503</v>
+        <v>1506</v>
       </c>
       <c r="H64" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7419,10 +7434,10 @@
         <v>1346</v>
       </c>
       <c r="G65" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="H65" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7445,10 +7460,10 @@
         <v>1343</v>
       </c>
       <c r="G66" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
       <c r="H66" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7471,10 +7486,10 @@
         <v>1352</v>
       </c>
       <c r="G67" t="s">
-        <v>1505</v>
+        <v>1508</v>
       </c>
       <c r="H67" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7500,7 +7515,7 @@
         <v>989</v>
       </c>
       <c r="H68" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7520,13 +7535,13 @@
         <v>1295</v>
       </c>
       <c r="F69" t="s">
-        <v>1350</v>
+        <v>1370</v>
       </c>
       <c r="G69" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="H69" t="s">
-        <v>1753</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7549,10 +7564,10 @@
         <v>1285</v>
       </c>
       <c r="G70" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
       <c r="H70" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7578,7 +7593,7 @@
         <v>933</v>
       </c>
       <c r="H71" t="s">
-        <v>1753</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7598,13 +7613,13 @@
         <v>1296</v>
       </c>
       <c r="F72" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="G72" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="H72" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7627,10 +7642,10 @@
         <v>1342</v>
       </c>
       <c r="G73" t="s">
-        <v>1508</v>
+        <v>1511</v>
       </c>
       <c r="H73" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7650,13 +7665,13 @@
         <v>1284</v>
       </c>
       <c r="F74" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="G74" t="s">
-        <v>1509</v>
+        <v>1512</v>
       </c>
       <c r="H74" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7682,7 +7697,7 @@
         <v>985</v>
       </c>
       <c r="H75" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7702,13 +7717,13 @@
         <v>1285</v>
       </c>
       <c r="F76" t="s">
-        <v>1285</v>
+        <v>1343</v>
       </c>
       <c r="G76" t="s">
-        <v>995</v>
+        <v>1513</v>
       </c>
       <c r="H76" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7731,10 +7746,10 @@
         <v>1285</v>
       </c>
       <c r="G77" t="s">
-        <v>1491</v>
+        <v>1494</v>
       </c>
       <c r="H77" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7757,10 +7772,10 @@
         <v>1339</v>
       </c>
       <c r="G78" t="s">
-        <v>1510</v>
+        <v>1514</v>
       </c>
       <c r="H78" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7780,13 +7795,13 @@
         <v>1278</v>
       </c>
       <c r="F79" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="G79" t="s">
-        <v>1511</v>
+        <v>1515</v>
       </c>
       <c r="H79" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7809,10 +7824,10 @@
         <v>1338</v>
       </c>
       <c r="G80" t="s">
-        <v>1512</v>
+        <v>1516</v>
       </c>
       <c r="H80" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7835,10 +7850,10 @@
         <v>1338</v>
       </c>
       <c r="G81" t="s">
-        <v>1513</v>
+        <v>1517</v>
       </c>
       <c r="H81" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7858,13 +7873,13 @@
         <v>1297</v>
       </c>
       <c r="F82" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="G82" t="s">
-        <v>1514</v>
+        <v>1518</v>
       </c>
       <c r="H82" t="s">
-        <v>1766</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7890,7 +7905,7 @@
         <v>933</v>
       </c>
       <c r="H83" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -7916,7 +7931,7 @@
         <v>1000</v>
       </c>
       <c r="H84" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -7939,10 +7954,10 @@
         <v>1285</v>
       </c>
       <c r="G85" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
       <c r="H85" t="s">
-        <v>1768</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -7965,10 +7980,10 @@
         <v>1278</v>
       </c>
       <c r="G86" t="s">
-        <v>1515</v>
+        <v>1519</v>
       </c>
       <c r="H86" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -7991,10 +8006,10 @@
         <v>1352</v>
       </c>
       <c r="G87" t="s">
-        <v>1516</v>
+        <v>1520</v>
       </c>
       <c r="H87" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8014,13 +8029,13 @@
         <v>1284</v>
       </c>
       <c r="F88" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G88" t="s">
-        <v>1517</v>
+        <v>1521</v>
       </c>
       <c r="H88" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8043,10 +8058,10 @@
         <v>1285</v>
       </c>
       <c r="G89" t="s">
-        <v>1518</v>
+        <v>1522</v>
       </c>
       <c r="H89" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8072,7 +8087,7 @@
         <v>968</v>
       </c>
       <c r="H90" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8092,13 +8107,13 @@
         <v>1286</v>
       </c>
       <c r="F91" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="G91" t="s">
-        <v>1519</v>
+        <v>1523</v>
       </c>
       <c r="H91" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8121,10 +8136,10 @@
         <v>1338</v>
       </c>
       <c r="G92" t="s">
-        <v>1520</v>
+        <v>1524</v>
       </c>
       <c r="H92" t="s">
-        <v>1769</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8144,13 +8159,13 @@
         <v>1277</v>
       </c>
       <c r="F93" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="G93" t="s">
-        <v>1521</v>
+        <v>1525</v>
       </c>
       <c r="H93" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8170,13 +8185,13 @@
         <v>1289</v>
       </c>
       <c r="F94" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="G94" t="s">
-        <v>1522</v>
+        <v>1526</v>
       </c>
       <c r="H94" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8196,13 +8211,13 @@
         <v>1300</v>
       </c>
       <c r="F95" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="G95" t="s">
-        <v>1523</v>
+        <v>1527</v>
       </c>
       <c r="H95" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8225,10 +8240,10 @@
         <v>1285</v>
       </c>
       <c r="G96" t="s">
-        <v>1524</v>
+        <v>1528</v>
       </c>
       <c r="H96" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8248,13 +8263,13 @@
         <v>1277</v>
       </c>
       <c r="F97" t="s">
-        <v>1371</v>
+        <v>1356</v>
       </c>
       <c r="G97" t="s">
-        <v>1525</v>
+        <v>1529</v>
       </c>
       <c r="H97" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8277,10 +8292,10 @@
         <v>1276</v>
       </c>
       <c r="G98" t="s">
-        <v>1461</v>
+        <v>1464</v>
       </c>
       <c r="H98" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8300,13 +8315,13 @@
         <v>1279</v>
       </c>
       <c r="F99" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="G99" t="s">
-        <v>1526</v>
+        <v>1530</v>
       </c>
       <c r="H99" t="s">
-        <v>1753</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8326,13 +8341,13 @@
         <v>1279</v>
       </c>
       <c r="F100" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="G100" t="s">
-        <v>1527</v>
+        <v>1531</v>
       </c>
       <c r="H100" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8355,10 +8370,10 @@
         <v>1294</v>
       </c>
       <c r="G101" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="H101" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8381,10 +8396,10 @@
         <v>1343</v>
       </c>
       <c r="G102" t="s">
-        <v>1528</v>
+        <v>1532</v>
       </c>
       <c r="H102" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8410,7 +8425,7 @@
         <v>968</v>
       </c>
       <c r="H103" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8430,13 +8445,13 @@
         <v>1277</v>
       </c>
       <c r="F104" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="G104" t="s">
-        <v>1529</v>
+        <v>1533</v>
       </c>
       <c r="H104" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8462,7 +8477,7 @@
         <v>931</v>
       </c>
       <c r="H105" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8482,13 +8497,13 @@
         <v>1286</v>
       </c>
       <c r="F106" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="G106" t="s">
-        <v>1530</v>
+        <v>1534</v>
       </c>
       <c r="H106" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8508,13 +8523,13 @@
         <v>1276</v>
       </c>
       <c r="F107" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="G107" t="s">
-        <v>1531</v>
+        <v>1535</v>
       </c>
       <c r="H107" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8534,13 +8549,13 @@
         <v>1296</v>
       </c>
       <c r="F108" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="G108" t="s">
-        <v>1532</v>
+        <v>1536</v>
       </c>
       <c r="H108" t="s">
-        <v>1770</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8563,10 +8578,10 @@
         <v>1294</v>
       </c>
       <c r="G109" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="H109" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8589,10 +8604,10 @@
         <v>1285</v>
       </c>
       <c r="G110" t="s">
-        <v>1533</v>
+        <v>1537</v>
       </c>
       <c r="H110" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8615,10 +8630,10 @@
         <v>1339</v>
       </c>
       <c r="G111" t="s">
-        <v>1534</v>
+        <v>1538</v>
       </c>
       <c r="H111" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8638,13 +8653,13 @@
         <v>1277</v>
       </c>
       <c r="F112" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G112" t="s">
-        <v>1535</v>
+        <v>1539</v>
       </c>
       <c r="H112" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8664,13 +8679,13 @@
         <v>1285</v>
       </c>
       <c r="F113" t="s">
-        <v>1343</v>
+        <v>1285</v>
       </c>
       <c r="G113" t="s">
-        <v>1536</v>
+        <v>1065</v>
       </c>
       <c r="H113" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8696,7 +8711,7 @@
         <v>947</v>
       </c>
       <c r="H114" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8716,13 +8731,13 @@
         <v>1296</v>
       </c>
       <c r="F115" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="G115" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="H115" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8742,13 +8757,13 @@
         <v>1277</v>
       </c>
       <c r="F116" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G116" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
       <c r="H116" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8768,13 +8783,13 @@
         <v>1278</v>
       </c>
       <c r="F117" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="G117" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
       <c r="H117" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8794,13 +8809,13 @@
         <v>1296</v>
       </c>
       <c r="F118" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="G118" t="s">
-        <v>1540</v>
+        <v>1543</v>
       </c>
       <c r="H118" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8820,13 +8835,13 @@
         <v>1278</v>
       </c>
       <c r="F119" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="G119" t="s">
-        <v>1541</v>
+        <v>1544</v>
       </c>
       <c r="H119" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8852,7 +8867,7 @@
         <v>968</v>
       </c>
       <c r="H120" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8878,7 +8893,7 @@
         <v>947</v>
       </c>
       <c r="H121" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -8904,7 +8919,7 @@
         <v>931</v>
       </c>
       <c r="H122" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -8930,7 +8945,7 @@
         <v>933</v>
       </c>
       <c r="H123" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -8950,13 +8965,13 @@
         <v>1278</v>
       </c>
       <c r="F124" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="G124" t="s">
-        <v>1542</v>
+        <v>1545</v>
       </c>
       <c r="H124" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -8979,10 +8994,10 @@
         <v>1285</v>
       </c>
       <c r="G125" t="s">
-        <v>1543</v>
+        <v>1546</v>
       </c>
       <c r="H125" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -9008,7 +9023,7 @@
         <v>1000</v>
       </c>
       <c r="H126" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9031,10 +9046,10 @@
         <v>1294</v>
       </c>
       <c r="G127" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="H127" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9057,10 +9072,10 @@
         <v>1346</v>
       </c>
       <c r="G128" t="s">
-        <v>1544</v>
+        <v>1547</v>
       </c>
       <c r="H128" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9080,13 +9095,13 @@
         <v>1277</v>
       </c>
       <c r="F129" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="G129" t="s">
-        <v>1545</v>
+        <v>1548</v>
       </c>
       <c r="H129" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9106,13 +9121,13 @@
         <v>1277</v>
       </c>
       <c r="F130" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="G130" t="s">
-        <v>1546</v>
+        <v>1549</v>
       </c>
       <c r="H130" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9135,10 +9150,10 @@
         <v>1339</v>
       </c>
       <c r="G131" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
       <c r="H131" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9158,13 +9173,13 @@
         <v>1276</v>
       </c>
       <c r="F132" t="s">
-        <v>1383</v>
+        <v>1338</v>
       </c>
       <c r="G132" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="H132" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9184,13 +9199,13 @@
         <v>1277</v>
       </c>
       <c r="F133" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="G133" t="s">
-        <v>1549</v>
+        <v>1552</v>
       </c>
       <c r="H133" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9213,10 +9228,10 @@
         <v>1343</v>
       </c>
       <c r="G134" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="H134" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9236,13 +9251,13 @@
         <v>1298</v>
       </c>
       <c r="F135" t="s">
-        <v>1285</v>
+        <v>1339</v>
       </c>
       <c r="G135" t="s">
-        <v>1065</v>
+        <v>1554</v>
       </c>
       <c r="H135" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9265,10 +9280,10 @@
         <v>1285</v>
       </c>
       <c r="G136" t="s">
-        <v>1491</v>
+        <v>1494</v>
       </c>
       <c r="H136" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9288,13 +9303,13 @@
         <v>1277</v>
       </c>
       <c r="F137" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G137" t="s">
-        <v>1551</v>
+        <v>1555</v>
       </c>
       <c r="H137" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9317,10 +9332,10 @@
         <v>1352</v>
       </c>
       <c r="G138" t="s">
-        <v>1552</v>
+        <v>1556</v>
       </c>
       <c r="H138" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9340,13 +9355,13 @@
         <v>1298</v>
       </c>
       <c r="F139" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="G139" t="s">
-        <v>1553</v>
+        <v>1557</v>
       </c>
       <c r="H139" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9366,13 +9381,13 @@
         <v>1282</v>
       </c>
       <c r="F140" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G140" t="s">
-        <v>1554</v>
+        <v>1558</v>
       </c>
       <c r="H140" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9398,7 +9413,7 @@
         <v>1050</v>
       </c>
       <c r="H141" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9418,13 +9433,13 @@
         <v>1278</v>
       </c>
       <c r="F142" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="G142" t="s">
-        <v>1555</v>
+        <v>1559</v>
       </c>
       <c r="H142" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9444,13 +9459,13 @@
         <v>1284</v>
       </c>
       <c r="F143" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G143" t="s">
-        <v>1517</v>
+        <v>1521</v>
       </c>
       <c r="H143" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9470,13 +9485,13 @@
         <v>1277</v>
       </c>
       <c r="F144" t="s">
-        <v>1371</v>
+        <v>1388</v>
       </c>
       <c r="G144" t="s">
-        <v>1556</v>
+        <v>1560</v>
       </c>
       <c r="H144" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9496,13 +9511,13 @@
         <v>1282</v>
       </c>
       <c r="F145" t="s">
-        <v>1278</v>
+        <v>1373</v>
       </c>
       <c r="G145" t="s">
-        <v>989</v>
+        <v>1561</v>
       </c>
       <c r="H145" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9522,13 +9537,13 @@
         <v>1302</v>
       </c>
       <c r="F146" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G146" t="s">
-        <v>1517</v>
+        <v>1521</v>
       </c>
       <c r="H146" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9554,7 +9569,7 @@
         <v>931</v>
       </c>
       <c r="H147" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9577,10 +9592,10 @@
         <v>1285</v>
       </c>
       <c r="G148" t="s">
-        <v>1557</v>
+        <v>1562</v>
       </c>
       <c r="H148" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9600,13 +9615,13 @@
         <v>1277</v>
       </c>
       <c r="F149" t="s">
-        <v>1386</v>
+        <v>1356</v>
       </c>
       <c r="G149" t="s">
-        <v>1558</v>
+        <v>1563</v>
       </c>
       <c r="H149" t="s">
-        <v>1771</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9626,13 +9641,13 @@
         <v>1276</v>
       </c>
       <c r="F150" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="G150" t="s">
-        <v>1559</v>
+        <v>1564</v>
       </c>
       <c r="H150" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9652,13 +9667,13 @@
         <v>1303</v>
       </c>
       <c r="F151" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="G151" t="s">
-        <v>1560</v>
+        <v>1565</v>
       </c>
       <c r="H151" t="s">
-        <v>1772</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9681,10 +9696,10 @@
         <v>1278</v>
       </c>
       <c r="G152" t="s">
-        <v>1561</v>
+        <v>1566</v>
       </c>
       <c r="H152" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9704,13 +9719,13 @@
         <v>1304</v>
       </c>
       <c r="F153" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="G153" t="s">
-        <v>1562</v>
+        <v>1567</v>
       </c>
       <c r="H153" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9730,13 +9745,13 @@
         <v>1278</v>
       </c>
       <c r="F154" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G154" t="s">
-        <v>1563</v>
+        <v>1568</v>
       </c>
       <c r="H154" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9756,13 +9771,13 @@
         <v>1278</v>
       </c>
       <c r="F155" t="s">
-        <v>1278</v>
+        <v>1373</v>
       </c>
       <c r="G155" t="s">
-        <v>1564</v>
+        <v>1569</v>
       </c>
       <c r="H155" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9782,13 +9797,13 @@
         <v>1278</v>
       </c>
       <c r="F156" t="s">
-        <v>1278</v>
+        <v>1373</v>
       </c>
       <c r="G156" t="s">
-        <v>1561</v>
+        <v>1570</v>
       </c>
       <c r="H156" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9811,10 +9826,10 @@
         <v>1294</v>
       </c>
       <c r="G157" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="H157" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9837,10 +9852,10 @@
         <v>1285</v>
       </c>
       <c r="G158" t="s">
-        <v>1518</v>
+        <v>1522</v>
       </c>
       <c r="H158" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9863,10 +9878,10 @@
         <v>1343</v>
       </c>
       <c r="G159" t="s">
-        <v>1565</v>
+        <v>1571</v>
       </c>
       <c r="H159" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9889,10 +9904,10 @@
         <v>1343</v>
       </c>
       <c r="G160" t="s">
-        <v>1566</v>
+        <v>1572</v>
       </c>
       <c r="H160" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -9911,8 +9926,14 @@
       <c r="E161" t="s">
         <v>1278</v>
       </c>
+      <c r="F161" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G161" t="s">
+        <v>1032</v>
+      </c>
       <c r="H161" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -9932,13 +9953,13 @@
         <v>1278</v>
       </c>
       <c r="F162" t="s">
-        <v>1343</v>
+        <v>1357</v>
       </c>
       <c r="G162" t="s">
-        <v>1567</v>
+        <v>1573</v>
       </c>
       <c r="H162" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -9964,7 +9985,7 @@
         <v>976</v>
       </c>
       <c r="H163" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -9987,10 +10008,10 @@
         <v>1343</v>
       </c>
       <c r="G164" t="s">
-        <v>1568</v>
+        <v>1574</v>
       </c>
       <c r="H164" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -10010,13 +10031,13 @@
         <v>1286</v>
       </c>
       <c r="F165" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="G165" t="s">
-        <v>1569</v>
+        <v>1575</v>
       </c>
       <c r="H165" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10039,10 +10060,10 @@
         <v>1343</v>
       </c>
       <c r="G166" t="s">
-        <v>1570</v>
+        <v>1576</v>
       </c>
       <c r="H166" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10062,13 +10083,13 @@
         <v>1279</v>
       </c>
       <c r="F167" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="G167" t="s">
-        <v>1571</v>
+        <v>1577</v>
       </c>
       <c r="H167" t="s">
-        <v>1753</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10088,13 +10109,13 @@
         <v>1305</v>
       </c>
       <c r="F168" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="G168" t="s">
-        <v>1572</v>
+        <v>1578</v>
       </c>
       <c r="H168" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10114,13 +10135,13 @@
         <v>1300</v>
       </c>
       <c r="F169" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="G169" t="s">
-        <v>1573</v>
+        <v>1579</v>
       </c>
       <c r="H169" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10140,13 +10161,13 @@
         <v>1306</v>
       </c>
       <c r="F170" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="G170" t="s">
-        <v>1574</v>
+        <v>1580</v>
       </c>
       <c r="H170" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10169,10 +10190,10 @@
         <v>1343</v>
       </c>
       <c r="G171" t="s">
-        <v>1575</v>
+        <v>1581</v>
       </c>
       <c r="H171" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10192,13 +10213,13 @@
         <v>1277</v>
       </c>
       <c r="F172" t="s">
-        <v>1285</v>
+        <v>1339</v>
       </c>
       <c r="G172" t="s">
-        <v>1576</v>
+        <v>1582</v>
       </c>
       <c r="H172" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10221,10 +10242,10 @@
         <v>1278</v>
       </c>
       <c r="G173" t="s">
-        <v>1577</v>
+        <v>1583</v>
       </c>
       <c r="H173" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10247,10 +10268,10 @@
         <v>1278</v>
       </c>
       <c r="G174" t="s">
-        <v>1561</v>
+        <v>1566</v>
       </c>
       <c r="H174" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10270,13 +10291,13 @@
         <v>1307</v>
       </c>
       <c r="F175" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="G175" t="s">
-        <v>1578</v>
+        <v>1584</v>
       </c>
       <c r="H175" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10299,10 +10320,10 @@
         <v>1343</v>
       </c>
       <c r="G176" t="s">
-        <v>1579</v>
+        <v>1585</v>
       </c>
       <c r="H176" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10322,13 +10343,13 @@
         <v>1284</v>
       </c>
       <c r="F177" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="G177" t="s">
-        <v>1580</v>
+        <v>1586</v>
       </c>
       <c r="H177" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10348,13 +10369,13 @@
         <v>1308</v>
       </c>
       <c r="F178" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="G178" t="s">
-        <v>1581</v>
+        <v>1587</v>
       </c>
       <c r="H178" t="s">
-        <v>1773</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10374,13 +10395,13 @@
         <v>1309</v>
       </c>
       <c r="F179" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="G179" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="H179" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10400,13 +10421,13 @@
         <v>1293</v>
       </c>
       <c r="F180" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="G180" t="s">
-        <v>1583</v>
+        <v>1589</v>
       </c>
       <c r="H180" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10429,10 +10450,10 @@
         <v>1339</v>
       </c>
       <c r="G181" t="s">
-        <v>1584</v>
+        <v>1590</v>
       </c>
       <c r="H181" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10458,7 +10479,7 @@
         <v>989</v>
       </c>
       <c r="H182" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10481,10 +10502,10 @@
         <v>1285</v>
       </c>
       <c r="G183" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
       <c r="H183" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10504,13 +10525,13 @@
         <v>1278</v>
       </c>
       <c r="F184" t="s">
-        <v>1278</v>
+        <v>1339</v>
       </c>
       <c r="G184" t="s">
-        <v>1585</v>
+        <v>1591</v>
       </c>
       <c r="H184" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10533,10 +10554,10 @@
         <v>1346</v>
       </c>
       <c r="G185" t="s">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="H185" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10559,10 +10580,10 @@
         <v>1343</v>
       </c>
       <c r="G186" t="s">
-        <v>1586</v>
+        <v>1592</v>
       </c>
       <c r="H186" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10582,13 +10603,13 @@
         <v>1278</v>
       </c>
       <c r="F187" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="G187" t="s">
-        <v>1529</v>
+        <v>1533</v>
       </c>
       <c r="H187" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10614,7 +10635,7 @@
         <v>989</v>
       </c>
       <c r="H188" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10640,7 +10661,7 @@
         <v>947</v>
       </c>
       <c r="H189" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10666,7 +10687,7 @@
         <v>933</v>
       </c>
       <c r="H190" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10689,10 +10710,10 @@
         <v>1343</v>
       </c>
       <c r="G191" t="s">
-        <v>1587</v>
+        <v>1593</v>
       </c>
       <c r="H191" t="s">
-        <v>1753</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10715,10 +10736,10 @@
         <v>1346</v>
       </c>
       <c r="G192" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="H192" t="s">
-        <v>1753</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10738,13 +10759,13 @@
         <v>1284</v>
       </c>
       <c r="F193" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="G193" t="s">
-        <v>1588</v>
+        <v>1594</v>
       </c>
       <c r="H193" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10767,10 +10788,10 @@
         <v>1278</v>
       </c>
       <c r="G194" t="s">
-        <v>1577</v>
+        <v>1583</v>
       </c>
       <c r="H194" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10796,7 +10817,7 @@
         <v>968</v>
       </c>
       <c r="H195" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10819,10 +10840,10 @@
         <v>1285</v>
       </c>
       <c r="G196" t="s">
-        <v>1480</v>
+        <v>1483</v>
       </c>
       <c r="H196" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10848,7 +10869,7 @@
         <v>996</v>
       </c>
       <c r="H197" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10868,7 +10889,7 @@
         <v>1297</v>
       </c>
       <c r="H198" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10888,13 +10909,13 @@
         <v>1278</v>
       </c>
       <c r="F199" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="G199" t="s">
-        <v>1589</v>
+        <v>1595</v>
       </c>
       <c r="H199" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -10917,10 +10938,10 @@
         <v>1343</v>
       </c>
       <c r="G200" t="s">
-        <v>1590</v>
+        <v>1596</v>
       </c>
       <c r="H200" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -10943,10 +10964,10 @@
         <v>1343</v>
       </c>
       <c r="G201" t="s">
-        <v>1590</v>
+        <v>1596</v>
       </c>
       <c r="H201" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -10966,13 +10987,13 @@
         <v>1309</v>
       </c>
       <c r="F202" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="G202" t="s">
-        <v>1591</v>
+        <v>1597</v>
       </c>
       <c r="H202" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -10998,7 +11019,7 @@
         <v>1089</v>
       </c>
       <c r="H203" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -11018,13 +11039,13 @@
         <v>1312</v>
       </c>
       <c r="F204" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="G204" t="s">
-        <v>1592</v>
+        <v>1598</v>
       </c>
       <c r="H204" t="s">
-        <v>1770</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11044,13 +11065,13 @@
         <v>1279</v>
       </c>
       <c r="F205" t="s">
-        <v>1350</v>
+        <v>1370</v>
       </c>
       <c r="G205" t="s">
-        <v>1593</v>
+        <v>1599</v>
       </c>
       <c r="H205" t="s">
-        <v>1753</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11070,13 +11091,13 @@
         <v>1276</v>
       </c>
       <c r="F206" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="G206" t="s">
-        <v>1594</v>
+        <v>1600</v>
       </c>
       <c r="H206" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11102,7 +11123,7 @@
         <v>947</v>
       </c>
       <c r="H207" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11125,10 +11146,10 @@
         <v>1352</v>
       </c>
       <c r="G208" t="s">
-        <v>1595</v>
+        <v>1601</v>
       </c>
       <c r="H208" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11148,13 +11169,13 @@
         <v>1277</v>
       </c>
       <c r="F209" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="G209" t="s">
-        <v>1596</v>
+        <v>1602</v>
       </c>
       <c r="H209" t="s">
-        <v>1753</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11177,10 +11198,10 @@
         <v>1278</v>
       </c>
       <c r="G210" t="s">
-        <v>1597</v>
+        <v>1603</v>
       </c>
       <c r="H210" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11200,13 +11221,13 @@
         <v>1311</v>
       </c>
       <c r="F211" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="G211" t="s">
-        <v>1598</v>
+        <v>1604</v>
       </c>
       <c r="H211" t="s">
-        <v>1774</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11226,13 +11247,13 @@
         <v>1278</v>
       </c>
       <c r="F212" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G212" t="s">
-        <v>1599</v>
+        <v>1605</v>
       </c>
       <c r="H212" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11255,10 +11276,10 @@
         <v>1285</v>
       </c>
       <c r="G213" t="s">
-        <v>1480</v>
+        <v>1483</v>
       </c>
       <c r="H213" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11278,13 +11299,13 @@
         <v>1296</v>
       </c>
       <c r="F214" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="G214" t="s">
-        <v>1600</v>
+        <v>1606</v>
       </c>
       <c r="H214" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11304,13 +11325,13 @@
         <v>1278</v>
       </c>
       <c r="F215" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G215" t="s">
-        <v>1601</v>
+        <v>1607</v>
       </c>
       <c r="H215" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11336,7 +11357,7 @@
         <v>989</v>
       </c>
       <c r="H216" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11356,13 +11377,13 @@
         <v>1311</v>
       </c>
       <c r="F217" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="G217" t="s">
-        <v>1602</v>
+        <v>1608</v>
       </c>
       <c r="H217" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11382,13 +11403,13 @@
         <v>1281</v>
       </c>
       <c r="F218" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="G218" t="s">
-        <v>1603</v>
+        <v>1609</v>
       </c>
       <c r="H218" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11408,13 +11429,13 @@
         <v>1285</v>
       </c>
       <c r="F219" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="G219" t="s">
-        <v>1604</v>
+        <v>1610</v>
       </c>
       <c r="H219" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11434,13 +11455,13 @@
         <v>1310</v>
       </c>
       <c r="F220" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="G220" t="s">
-        <v>1605</v>
+        <v>1611</v>
       </c>
       <c r="H220" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11466,7 +11487,7 @@
         <v>947</v>
       </c>
       <c r="H221" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11486,13 +11507,13 @@
         <v>1276</v>
       </c>
       <c r="F222" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="G222" t="s">
-        <v>1606</v>
+        <v>1612</v>
       </c>
       <c r="H222" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11512,13 +11533,13 @@
         <v>1311</v>
       </c>
       <c r="F223" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="G223" t="s">
-        <v>1607</v>
+        <v>1613</v>
       </c>
       <c r="H223" t="s">
-        <v>1775</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11538,13 +11559,13 @@
         <v>1314</v>
       </c>
       <c r="F224" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="G224" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="H224" t="s">
-        <v>1776</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11570,7 +11591,7 @@
         <v>1089</v>
       </c>
       <c r="H225" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11596,7 +11617,7 @@
         <v>931</v>
       </c>
       <c r="H226" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11622,7 +11643,7 @@
         <v>1089</v>
       </c>
       <c r="H227" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11645,10 +11666,10 @@
         <v>1343</v>
       </c>
       <c r="G228" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
       <c r="H228" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11668,13 +11689,13 @@
         <v>1276</v>
       </c>
       <c r="F229" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="G229" t="s">
-        <v>1610</v>
+        <v>1616</v>
       </c>
       <c r="H229" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11697,10 +11718,10 @@
         <v>1294</v>
       </c>
       <c r="G230" t="s">
-        <v>1611</v>
+        <v>1617</v>
       </c>
       <c r="H230" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11726,7 +11747,7 @@
         <v>947</v>
       </c>
       <c r="H231" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11749,10 +11770,10 @@
         <v>1294</v>
       </c>
       <c r="G232" t="s">
-        <v>1612</v>
+        <v>1618</v>
       </c>
       <c r="H232" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11775,10 +11796,10 @@
         <v>1294</v>
       </c>
       <c r="G233" t="s">
-        <v>1611</v>
+        <v>1617</v>
       </c>
       <c r="H233" t="s">
-        <v>1753</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11801,10 +11822,10 @@
         <v>1339</v>
       </c>
       <c r="G234" t="s">
-        <v>1613</v>
+        <v>1619</v>
       </c>
       <c r="H234" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11827,10 +11848,10 @@
         <v>1342</v>
       </c>
       <c r="G235" t="s">
-        <v>1614</v>
+        <v>1620</v>
       </c>
       <c r="H235" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11853,10 +11874,10 @@
         <v>1353</v>
       </c>
       <c r="G236" t="s">
-        <v>1615</v>
+        <v>1621</v>
       </c>
       <c r="H236" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11879,10 +11900,10 @@
         <v>1346</v>
       </c>
       <c r="G237" t="s">
-        <v>1616</v>
+        <v>1622</v>
       </c>
       <c r="H237" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11902,13 +11923,13 @@
         <v>1316</v>
       </c>
       <c r="F238" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="G238" t="s">
-        <v>1617</v>
+        <v>1623</v>
       </c>
       <c r="H238" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -11934,7 +11955,7 @@
         <v>968</v>
       </c>
       <c r="H239" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -11954,13 +11975,13 @@
         <v>1317</v>
       </c>
       <c r="F240" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="G240" t="s">
-        <v>1618</v>
+        <v>1624</v>
       </c>
       <c r="H240" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -11983,10 +12004,10 @@
         <v>1343</v>
       </c>
       <c r="G241" t="s">
-        <v>1619</v>
+        <v>1625</v>
       </c>
       <c r="H241" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -12006,13 +12027,13 @@
         <v>1318</v>
       </c>
       <c r="F242" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G242" t="s">
-        <v>1517</v>
+        <v>1521</v>
       </c>
       <c r="H242" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -12035,10 +12056,10 @@
         <v>1346</v>
       </c>
       <c r="G243" t="s">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="H243" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12058,13 +12079,13 @@
         <v>1276</v>
       </c>
       <c r="F244" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="G244" t="s">
-        <v>1620</v>
+        <v>1626</v>
       </c>
       <c r="H244" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12087,10 +12108,10 @@
         <v>1342</v>
       </c>
       <c r="G245" t="s">
-        <v>1621</v>
+        <v>1627</v>
       </c>
       <c r="H245" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12116,7 +12137,7 @@
         <v>931</v>
       </c>
       <c r="H246" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12136,13 +12157,13 @@
         <v>1310</v>
       </c>
       <c r="F247" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="G247" t="s">
-        <v>1622</v>
+        <v>1628</v>
       </c>
       <c r="H247" t="s">
-        <v>1753</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12168,7 +12189,7 @@
         <v>985</v>
       </c>
       <c r="H248" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12188,13 +12209,13 @@
         <v>1305</v>
       </c>
       <c r="F249" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="G249" t="s">
-        <v>1623</v>
+        <v>1629</v>
       </c>
       <c r="H249" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12217,10 +12238,10 @@
         <v>1339</v>
       </c>
       <c r="G250" t="s">
-        <v>1624</v>
+        <v>1630</v>
       </c>
       <c r="H250" t="s">
-        <v>1753</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12240,13 +12261,13 @@
         <v>1300</v>
       </c>
       <c r="F251" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="G251" t="s">
-        <v>1625</v>
+        <v>1631</v>
       </c>
       <c r="H251" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12266,13 +12287,13 @@
         <v>1276</v>
       </c>
       <c r="F252" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="G252" t="s">
-        <v>1626</v>
+        <v>1632</v>
       </c>
       <c r="H252" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12292,13 +12313,13 @@
         <v>1276</v>
       </c>
       <c r="F253" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="G253" t="s">
-        <v>1627</v>
+        <v>1633</v>
       </c>
       <c r="H253" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12324,7 +12345,7 @@
         <v>947</v>
       </c>
       <c r="H254" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12344,13 +12365,13 @@
         <v>1276</v>
       </c>
       <c r="F255" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G255" t="s">
-        <v>1628</v>
+        <v>1634</v>
       </c>
       <c r="H255" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12373,10 +12394,10 @@
         <v>1294</v>
       </c>
       <c r="G256" t="s">
-        <v>1611</v>
+        <v>1617</v>
       </c>
       <c r="H256" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12399,10 +12420,10 @@
         <v>1339</v>
       </c>
       <c r="G257" t="s">
-        <v>1472</v>
+        <v>1475</v>
       </c>
       <c r="H257" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12422,13 +12443,13 @@
         <v>1279</v>
       </c>
       <c r="F258" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="G258" t="s">
-        <v>1629</v>
+        <v>1635</v>
       </c>
       <c r="H258" t="s">
-        <v>1753</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12454,7 +12475,7 @@
         <v>1065</v>
       </c>
       <c r="H259" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12477,10 +12498,10 @@
         <v>1294</v>
       </c>
       <c r="G260" t="s">
-        <v>1611</v>
+        <v>1617</v>
       </c>
       <c r="H260" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12500,13 +12521,13 @@
         <v>1285</v>
       </c>
       <c r="F261" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="G261" t="s">
-        <v>1630</v>
+        <v>1636</v>
       </c>
       <c r="H261" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12532,7 +12553,7 @@
         <v>968</v>
       </c>
       <c r="H262" t="s">
-        <v>1753</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12555,10 +12576,10 @@
         <v>1347</v>
       </c>
       <c r="G263" t="s">
-        <v>1631</v>
+        <v>1637</v>
       </c>
       <c r="H263" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12578,13 +12599,13 @@
         <v>1276</v>
       </c>
       <c r="F264" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="G264" t="s">
-        <v>1632</v>
+        <v>1638</v>
       </c>
       <c r="H264" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12607,10 +12628,10 @@
         <v>1342</v>
       </c>
       <c r="G265" t="s">
-        <v>1633</v>
+        <v>1639</v>
       </c>
       <c r="H265" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12630,13 +12651,13 @@
         <v>1294</v>
       </c>
       <c r="F266" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G266" t="s">
-        <v>1634</v>
+        <v>1640</v>
       </c>
       <c r="H266" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12656,13 +12677,13 @@
         <v>1279</v>
       </c>
       <c r="F267" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="G267" t="s">
-        <v>1635</v>
+        <v>1641</v>
       </c>
       <c r="H267" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12682,13 +12703,13 @@
         <v>1286</v>
       </c>
       <c r="F268" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="G268" t="s">
-        <v>1636</v>
+        <v>1642</v>
       </c>
       <c r="H268" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12708,13 +12729,13 @@
         <v>1276</v>
       </c>
       <c r="F269" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="G269" t="s">
-        <v>1637</v>
+        <v>1643</v>
       </c>
       <c r="H269" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12740,7 +12761,7 @@
         <v>985</v>
       </c>
       <c r="H270" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12760,13 +12781,13 @@
         <v>1304</v>
       </c>
       <c r="F271" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="G271" t="s">
-        <v>1638</v>
+        <v>1644</v>
       </c>
       <c r="H271" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12786,13 +12807,13 @@
         <v>1286</v>
       </c>
       <c r="F272" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="G272" t="s">
-        <v>1639</v>
+        <v>1645</v>
       </c>
       <c r="H272" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12812,13 +12833,13 @@
         <v>1279</v>
       </c>
       <c r="F273" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G273" t="s">
-        <v>1640</v>
+        <v>1646</v>
       </c>
       <c r="H273" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12841,10 +12862,10 @@
         <v>1353</v>
       </c>
       <c r="G274" t="s">
-        <v>1641</v>
+        <v>1647</v>
       </c>
       <c r="H274" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12864,13 +12885,13 @@
         <v>1319</v>
       </c>
       <c r="F275" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="G275" t="s">
-        <v>1642</v>
+        <v>1648</v>
       </c>
       <c r="H275" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12890,13 +12911,13 @@
         <v>1276</v>
       </c>
       <c r="F276" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="G276" t="s">
-        <v>1643</v>
+        <v>1649</v>
       </c>
       <c r="H276" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -12919,10 +12940,10 @@
         <v>1285</v>
       </c>
       <c r="G277" t="s">
-        <v>1480</v>
+        <v>1483</v>
       </c>
       <c r="H277" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -12942,13 +12963,13 @@
         <v>1276</v>
       </c>
       <c r="F278" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="G278" t="s">
-        <v>1644</v>
+        <v>1650</v>
       </c>
       <c r="H278" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -12968,13 +12989,13 @@
         <v>1276</v>
       </c>
       <c r="F279" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="G279" t="s">
-        <v>1645</v>
+        <v>1651</v>
       </c>
       <c r="H279" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -13000,7 +13021,7 @@
         <v>1227</v>
       </c>
       <c r="H280" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -13026,7 +13047,7 @@
         <v>985</v>
       </c>
       <c r="H281" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13046,13 +13067,13 @@
         <v>1276</v>
       </c>
       <c r="F282" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="G282" t="s">
-        <v>1646</v>
+        <v>1652</v>
       </c>
       <c r="H282" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13078,7 +13099,7 @@
         <v>1211</v>
       </c>
       <c r="H283" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13098,13 +13119,13 @@
         <v>1320</v>
       </c>
       <c r="F284" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="G284" t="s">
-        <v>1647</v>
+        <v>1653</v>
       </c>
       <c r="H284" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13124,13 +13145,13 @@
         <v>1276</v>
       </c>
       <c r="F285" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G285" t="s">
-        <v>1648</v>
+        <v>1654</v>
       </c>
       <c r="H285" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13150,13 +13171,13 @@
         <v>1276</v>
       </c>
       <c r="F286" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="G286" t="s">
-        <v>1649</v>
+        <v>1655</v>
       </c>
       <c r="H286" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13176,13 +13197,13 @@
         <v>1279</v>
       </c>
       <c r="F287" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="G287" t="s">
-        <v>1650</v>
+        <v>1656</v>
       </c>
       <c r="H287" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13205,10 +13226,10 @@
         <v>1285</v>
       </c>
       <c r="G288" t="s">
-        <v>1524</v>
+        <v>1528</v>
       </c>
       <c r="H288" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13231,10 +13252,10 @@
         <v>1285</v>
       </c>
       <c r="G289" t="s">
-        <v>1576</v>
+        <v>1657</v>
       </c>
       <c r="H289" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13254,13 +13275,13 @@
         <v>1321</v>
       </c>
       <c r="F290" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="G290" t="s">
-        <v>1651</v>
+        <v>1658</v>
       </c>
       <c r="H290" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13280,13 +13301,13 @@
         <v>1276</v>
       </c>
       <c r="F291" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="G291" t="s">
-        <v>1652</v>
+        <v>1659</v>
       </c>
       <c r="H291" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13306,13 +13327,13 @@
         <v>1276</v>
       </c>
       <c r="F292" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="G292" t="s">
-        <v>1653</v>
+        <v>1660</v>
       </c>
       <c r="H292" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13332,13 +13353,13 @@
         <v>1298</v>
       </c>
       <c r="F293" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="G293" t="s">
-        <v>1654</v>
+        <v>1661</v>
       </c>
       <c r="H293" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13361,10 +13382,10 @@
         <v>1343</v>
       </c>
       <c r="G294" t="s">
-        <v>1586</v>
+        <v>1592</v>
       </c>
       <c r="H294" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13390,7 +13411,7 @@
         <v>947</v>
       </c>
       <c r="H295" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13413,10 +13434,10 @@
         <v>1346</v>
       </c>
       <c r="G296" t="s">
-        <v>1544</v>
+        <v>1547</v>
       </c>
       <c r="H296" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13436,13 +13457,13 @@
         <v>1285</v>
       </c>
       <c r="F297" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="G297" t="s">
-        <v>1655</v>
+        <v>1662</v>
       </c>
       <c r="H297" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13462,13 +13483,13 @@
         <v>1294</v>
       </c>
       <c r="F298" t="s">
-        <v>1428</v>
+        <v>1417</v>
       </c>
       <c r="G298" t="s">
-        <v>1656</v>
+        <v>1663</v>
       </c>
       <c r="H298" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13494,7 +13515,7 @@
         <v>947</v>
       </c>
       <c r="H299" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13514,13 +13535,13 @@
         <v>1276</v>
       </c>
       <c r="F300" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="G300" t="s">
-        <v>1657</v>
+        <v>1664</v>
       </c>
       <c r="H300" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13540,13 +13561,13 @@
         <v>1285</v>
       </c>
       <c r="F301" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="G301" t="s">
-        <v>1658</v>
+        <v>1665</v>
       </c>
       <c r="H301" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13566,13 +13587,13 @@
         <v>1279</v>
       </c>
       <c r="F302" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="G302" t="s">
-        <v>1659</v>
+        <v>1666</v>
       </c>
       <c r="H302" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13592,13 +13613,13 @@
         <v>1276</v>
       </c>
       <c r="F303" t="s">
-        <v>1341</v>
+        <v>1276</v>
       </c>
       <c r="G303" t="s">
-        <v>1660</v>
+        <v>985</v>
       </c>
       <c r="H303" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13624,7 +13645,7 @@
         <v>1000</v>
       </c>
       <c r="H304" t="s">
-        <v>1753</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13650,7 +13671,7 @@
         <v>933</v>
       </c>
       <c r="H305" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13670,13 +13691,13 @@
         <v>1276</v>
       </c>
       <c r="F306" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="G306" t="s">
-        <v>1652</v>
+        <v>1659</v>
       </c>
       <c r="H306" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13702,7 +13723,7 @@
         <v>947</v>
       </c>
       <c r="H307" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13725,10 +13746,10 @@
         <v>1294</v>
       </c>
       <c r="G308" t="s">
-        <v>1611</v>
+        <v>1617</v>
       </c>
       <c r="H308" t="s">
-        <v>1753</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13754,7 +13775,7 @@
         <v>1089</v>
       </c>
       <c r="H309" t="s">
-        <v>1756</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13780,7 +13801,7 @@
         <v>1089</v>
       </c>
       <c r="H310" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13806,7 +13827,7 @@
         <v>968</v>
       </c>
       <c r="H311" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13829,10 +13850,10 @@
         <v>1343</v>
       </c>
       <c r="G312" t="s">
-        <v>1661</v>
+        <v>1667</v>
       </c>
       <c r="H312" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13858,7 +13879,7 @@
         <v>947</v>
       </c>
       <c r="H313" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13884,7 +13905,7 @@
         <v>947</v>
       </c>
       <c r="H314" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -13904,13 +13925,13 @@
         <v>1294</v>
       </c>
       <c r="F315" t="s">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="G315" t="s">
-        <v>1662</v>
+        <v>1668</v>
       </c>
       <c r="H315" t="s">
-        <v>1753</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -13930,13 +13951,13 @@
         <v>1276</v>
       </c>
       <c r="F316" t="s">
-        <v>1390</v>
+        <v>1432</v>
       </c>
       <c r="G316" t="s">
-        <v>1663</v>
+        <v>1669</v>
       </c>
       <c r="H316" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -13959,10 +13980,10 @@
         <v>1346</v>
       </c>
       <c r="G317" t="s">
-        <v>1544</v>
+        <v>1547</v>
       </c>
       <c r="H317" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -13985,10 +14006,10 @@
         <v>1339</v>
       </c>
       <c r="G318" t="s">
-        <v>1472</v>
+        <v>1475</v>
       </c>
       <c r="H318" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -14007,8 +14028,14 @@
       <c r="E319" t="s">
         <v>1285</v>
       </c>
+      <c r="F319" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G319" t="s">
+        <v>1171</v>
+      </c>
       <c r="H319" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -14028,13 +14055,13 @@
         <v>1285</v>
       </c>
       <c r="F320" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="G320" t="s">
-        <v>1664</v>
+        <v>1670</v>
       </c>
       <c r="H320" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14054,13 +14081,13 @@
         <v>1315</v>
       </c>
       <c r="F321" t="s">
-        <v>1343</v>
+        <v>1353</v>
       </c>
       <c r="G321" t="s">
-        <v>1665</v>
+        <v>1671</v>
       </c>
       <c r="H321" t="s">
-        <v>1753</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14080,13 +14107,13 @@
         <v>1285</v>
       </c>
       <c r="F322" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="G322" t="s">
-        <v>1666</v>
+        <v>1672</v>
       </c>
       <c r="H322" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14109,10 +14136,10 @@
         <v>1346</v>
       </c>
       <c r="G323" t="s">
-        <v>1667</v>
+        <v>1673</v>
       </c>
       <c r="H323" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14132,13 +14159,13 @@
         <v>1279</v>
       </c>
       <c r="F324" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G324" t="s">
-        <v>1668</v>
+        <v>1674</v>
       </c>
       <c r="H324" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14164,7 +14191,7 @@
         <v>947</v>
       </c>
       <c r="H325" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14190,7 +14217,7 @@
         <v>1089</v>
       </c>
       <c r="H326" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14210,13 +14237,13 @@
         <v>1276</v>
       </c>
       <c r="F327" t="s">
-        <v>1430</v>
+        <v>1433</v>
       </c>
       <c r="G327" t="s">
-        <v>1669</v>
+        <v>1675</v>
       </c>
       <c r="H327" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14239,10 +14266,10 @@
         <v>1343</v>
       </c>
       <c r="G328" t="s">
-        <v>1670</v>
+        <v>1676</v>
       </c>
       <c r="H328" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14265,10 +14292,10 @@
         <v>1353</v>
       </c>
       <c r="G329" t="s">
-        <v>1671</v>
+        <v>1677</v>
       </c>
       <c r="H329" t="s">
-        <v>1777</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14291,10 +14318,10 @@
         <v>1285</v>
       </c>
       <c r="G330" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
       <c r="H330" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14314,13 +14341,13 @@
         <v>1297</v>
       </c>
       <c r="F331" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="G331" t="s">
-        <v>1672</v>
+        <v>1678</v>
       </c>
       <c r="H331" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14343,10 +14370,10 @@
         <v>1285</v>
       </c>
       <c r="G332" t="s">
-        <v>1518</v>
+        <v>1522</v>
       </c>
       <c r="H332" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14366,13 +14393,13 @@
         <v>1276</v>
       </c>
       <c r="F333" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="G333" t="s">
-        <v>1673</v>
+        <v>1679</v>
       </c>
       <c r="H333" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14398,7 +14425,7 @@
         <v>1180</v>
       </c>
       <c r="H334" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14421,10 +14448,10 @@
         <v>1348</v>
       </c>
       <c r="G335" t="s">
-        <v>1674</v>
+        <v>1680</v>
       </c>
       <c r="H335" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14447,10 +14474,10 @@
         <v>1347</v>
       </c>
       <c r="G336" t="s">
-        <v>1675</v>
+        <v>1681</v>
       </c>
       <c r="H336" t="s">
-        <v>1756</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14473,10 +14500,10 @@
         <v>1342</v>
       </c>
       <c r="G337" t="s">
-        <v>1676</v>
+        <v>1682</v>
       </c>
       <c r="H337" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14496,13 +14523,13 @@
         <v>1297</v>
       </c>
       <c r="F338" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="G338" t="s">
-        <v>1677</v>
+        <v>1683</v>
       </c>
       <c r="H338" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14522,13 +14549,13 @@
         <v>1276</v>
       </c>
       <c r="F339" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="G339" t="s">
-        <v>1678</v>
+        <v>1684</v>
       </c>
       <c r="H339" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14551,10 +14578,10 @@
         <v>1294</v>
       </c>
       <c r="G340" t="s">
-        <v>1679</v>
+        <v>1685</v>
       </c>
       <c r="H340" t="s">
-        <v>1753</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14574,13 +14601,13 @@
         <v>1317</v>
       </c>
       <c r="F341" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="G341" t="s">
-        <v>1680</v>
+        <v>1686</v>
       </c>
       <c r="H341" t="s">
-        <v>1778</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14603,10 +14630,10 @@
         <v>1346</v>
       </c>
       <c r="G342" t="s">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="H342" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14626,13 +14653,13 @@
         <v>1300</v>
       </c>
       <c r="F343" t="s">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="G343" t="s">
-        <v>1681</v>
+        <v>1687</v>
       </c>
       <c r="H343" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14652,13 +14679,13 @@
         <v>1324</v>
       </c>
       <c r="F344" t="s">
-        <v>1433</v>
+        <v>1436</v>
       </c>
       <c r="G344" t="s">
-        <v>1682</v>
+        <v>1688</v>
       </c>
       <c r="H344" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14681,10 +14708,10 @@
         <v>1343</v>
       </c>
       <c r="G345" t="s">
-        <v>1590</v>
+        <v>1596</v>
       </c>
       <c r="H345" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14704,13 +14731,13 @@
         <v>1300</v>
       </c>
       <c r="F346" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="G346" t="s">
-        <v>1683</v>
+        <v>1689</v>
       </c>
       <c r="H346" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14736,7 +14763,7 @@
         <v>947</v>
       </c>
       <c r="H347" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14762,7 +14789,7 @@
         <v>985</v>
       </c>
       <c r="H348" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14788,7 +14815,7 @@
         <v>1089</v>
       </c>
       <c r="H349" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14811,10 +14838,10 @@
         <v>1346</v>
       </c>
       <c r="G350" t="s">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="H350" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14834,13 +14861,13 @@
         <v>1279</v>
       </c>
       <c r="F351" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G351" t="s">
-        <v>1640</v>
+        <v>1646</v>
       </c>
       <c r="H351" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14860,13 +14887,13 @@
         <v>1322</v>
       </c>
       <c r="F352" t="s">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="G352" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="H352" t="s">
-        <v>1766</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -14892,7 +14919,7 @@
         <v>968</v>
       </c>
       <c r="H353" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -14918,7 +14945,7 @@
         <v>985</v>
       </c>
       <c r="H354" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -14938,13 +14965,13 @@
         <v>1285</v>
       </c>
       <c r="F355" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="G355" t="s">
-        <v>1685</v>
+        <v>1691</v>
       </c>
       <c r="H355" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -14970,7 +14997,7 @@
         <v>947</v>
       </c>
       <c r="H356" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -14990,13 +15017,13 @@
         <v>1325</v>
       </c>
       <c r="F357" t="s">
-        <v>1436</v>
+        <v>1439</v>
       </c>
       <c r="G357" t="s">
-        <v>1686</v>
+        <v>1692</v>
       </c>
       <c r="H357" t="s">
-        <v>1779</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -15019,10 +15046,10 @@
         <v>1346</v>
       </c>
       <c r="G358" t="s">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="H358" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15045,10 +15072,10 @@
         <v>1285</v>
       </c>
       <c r="G359" t="s">
-        <v>1543</v>
+        <v>1546</v>
       </c>
       <c r="H359" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15074,7 +15101,7 @@
         <v>985</v>
       </c>
       <c r="H360" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15094,13 +15121,13 @@
         <v>1279</v>
       </c>
       <c r="F361" t="s">
-        <v>1380</v>
+        <v>1339</v>
       </c>
       <c r="G361" t="s">
-        <v>1687</v>
+        <v>1514</v>
       </c>
       <c r="H361" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15123,10 +15150,10 @@
         <v>1285</v>
       </c>
       <c r="G362" t="s">
-        <v>1533</v>
+        <v>1537</v>
       </c>
       <c r="H362" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15146,13 +15173,13 @@
         <v>1286</v>
       </c>
       <c r="F363" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
       <c r="G363" t="s">
-        <v>1688</v>
+        <v>1693</v>
       </c>
       <c r="H363" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15172,13 +15199,13 @@
         <v>1279</v>
       </c>
       <c r="F364" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="G364" t="s">
-        <v>1689</v>
+        <v>1694</v>
       </c>
       <c r="H364" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15198,13 +15225,13 @@
         <v>1279</v>
       </c>
       <c r="F365" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="G365" t="s">
-        <v>1690</v>
+        <v>1695</v>
       </c>
       <c r="H365" t="s">
-        <v>1780</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15227,10 +15254,10 @@
         <v>1343</v>
       </c>
       <c r="G366" t="s">
-        <v>1661</v>
+        <v>1667</v>
       </c>
       <c r="H366" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15253,10 +15280,10 @@
         <v>1339</v>
       </c>
       <c r="G367" t="s">
-        <v>1534</v>
+        <v>1538</v>
       </c>
       <c r="H367" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15279,10 +15306,10 @@
         <v>1343</v>
       </c>
       <c r="G368" t="s">
-        <v>1691</v>
+        <v>1696</v>
       </c>
       <c r="H368" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15305,10 +15332,10 @@
         <v>1339</v>
       </c>
       <c r="G369" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="H369" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15328,13 +15355,13 @@
         <v>1285</v>
       </c>
       <c r="F370" t="s">
-        <v>1438</v>
+        <v>1441</v>
       </c>
       <c r="G370" t="s">
-        <v>1692</v>
+        <v>1697</v>
       </c>
       <c r="H370" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15357,10 +15384,10 @@
         <v>1350</v>
       </c>
       <c r="G371" t="s">
-        <v>1693</v>
+        <v>1698</v>
       </c>
       <c r="H371" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15380,13 +15407,13 @@
         <v>1285</v>
       </c>
       <c r="F372" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="G372" t="s">
-        <v>1694</v>
+        <v>1699</v>
       </c>
       <c r="H372" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15406,13 +15433,13 @@
         <v>1285</v>
       </c>
       <c r="F373" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
       <c r="G373" t="s">
-        <v>1695</v>
+        <v>1700</v>
       </c>
       <c r="H373" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15432,7 +15459,7 @@
         <v>1285</v>
       </c>
       <c r="H374" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15458,7 +15485,7 @@
         <v>1211</v>
       </c>
       <c r="H375" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15478,13 +15505,13 @@
         <v>1279</v>
       </c>
       <c r="F376" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="G376" t="s">
-        <v>1696</v>
+        <v>1701</v>
       </c>
       <c r="H376" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15504,13 +15531,13 @@
         <v>1279</v>
       </c>
       <c r="F377" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="G377" t="s">
-        <v>1697</v>
+        <v>1702</v>
       </c>
       <c r="H377" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15530,13 +15557,13 @@
         <v>1285</v>
       </c>
       <c r="F378" t="s">
-        <v>1352</v>
+        <v>1443</v>
       </c>
       <c r="G378" t="s">
-        <v>1698</v>
+        <v>1703</v>
       </c>
       <c r="H378" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15556,13 +15583,13 @@
         <v>1326</v>
       </c>
       <c r="F379" t="s">
-        <v>1440</v>
+        <v>1444</v>
       </c>
       <c r="G379" t="s">
-        <v>1699</v>
+        <v>1704</v>
       </c>
       <c r="H379" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15585,10 +15612,10 @@
         <v>1343</v>
       </c>
       <c r="G380" t="s">
-        <v>1700</v>
+        <v>1705</v>
       </c>
       <c r="H380" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15611,10 +15638,10 @@
         <v>1294</v>
       </c>
       <c r="G381" t="s">
-        <v>1611</v>
+        <v>1617</v>
       </c>
       <c r="H381" t="s">
-        <v>1756</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15634,13 +15661,13 @@
         <v>1327</v>
       </c>
       <c r="F382" t="s">
-        <v>1441</v>
+        <v>1445</v>
       </c>
       <c r="G382" t="s">
-        <v>1701</v>
+        <v>1706</v>
       </c>
       <c r="H382" t="s">
-        <v>1781</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15660,13 +15687,13 @@
         <v>1328</v>
       </c>
       <c r="F383" t="s">
-        <v>1442</v>
+        <v>1446</v>
       </c>
       <c r="G383" t="s">
-        <v>1702</v>
+        <v>1707</v>
       </c>
       <c r="H383" t="s">
-        <v>1772</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15686,13 +15713,13 @@
         <v>1329</v>
       </c>
       <c r="F384" t="s">
-        <v>1443</v>
+        <v>1447</v>
       </c>
       <c r="G384" t="s">
-        <v>1703</v>
+        <v>1708</v>
       </c>
       <c r="H384" t="s">
-        <v>1756</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15712,13 +15739,13 @@
         <v>1279</v>
       </c>
       <c r="F385" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G385" t="s">
-        <v>1668</v>
+        <v>1674</v>
       </c>
       <c r="H385" t="s">
-        <v>1771</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15738,13 +15765,13 @@
         <v>1325</v>
       </c>
       <c r="F386" t="s">
-        <v>1444</v>
+        <v>1448</v>
       </c>
       <c r="G386" t="s">
-        <v>1704</v>
+        <v>1709</v>
       </c>
       <c r="H386" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15767,10 +15794,10 @@
         <v>1350</v>
       </c>
       <c r="G387" t="s">
-        <v>1705</v>
+        <v>1710</v>
       </c>
       <c r="H387" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15793,10 +15820,10 @@
         <v>1343</v>
       </c>
       <c r="G388" t="s">
-        <v>1586</v>
+        <v>1592</v>
       </c>
       <c r="H388" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15819,10 +15846,10 @@
         <v>1343</v>
       </c>
       <c r="G389" t="s">
-        <v>1565</v>
+        <v>1571</v>
       </c>
       <c r="H389" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15842,13 +15869,13 @@
         <v>1295</v>
       </c>
       <c r="F390" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="G390" t="s">
-        <v>1706</v>
+        <v>1711</v>
       </c>
       <c r="H390" t="s">
-        <v>1753</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -15871,10 +15898,10 @@
         <v>1352</v>
       </c>
       <c r="G391" t="s">
-        <v>1707</v>
+        <v>1712</v>
       </c>
       <c r="H391" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -15897,10 +15924,10 @@
         <v>1285</v>
       </c>
       <c r="G392" t="s">
-        <v>1480</v>
+        <v>1483</v>
       </c>
       <c r="H392" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -15923,10 +15950,10 @@
         <v>1353</v>
       </c>
       <c r="G393" t="s">
-        <v>1708</v>
+        <v>1713</v>
       </c>
       <c r="H393" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -15946,13 +15973,13 @@
         <v>1285</v>
       </c>
       <c r="F394" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="G394" t="s">
-        <v>1709</v>
+        <v>1714</v>
       </c>
       <c r="H394" t="s">
-        <v>1766</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -15972,13 +15999,13 @@
         <v>1285</v>
       </c>
       <c r="F395" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="G395" t="s">
-        <v>1710</v>
+        <v>1715</v>
       </c>
       <c r="H395" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -16001,10 +16028,10 @@
         <v>1343</v>
       </c>
       <c r="G396" t="s">
-        <v>1711</v>
+        <v>1716</v>
       </c>
       <c r="H396" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -16024,13 +16051,13 @@
         <v>1279</v>
       </c>
       <c r="F397" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="G397" t="s">
-        <v>1650</v>
+        <v>1656</v>
       </c>
       <c r="H397" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16056,7 +16083,7 @@
         <v>1089</v>
       </c>
       <c r="H398" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16079,10 +16106,10 @@
         <v>1338</v>
       </c>
       <c r="G399" t="s">
-        <v>1712</v>
+        <v>1717</v>
       </c>
       <c r="H399" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16102,13 +16129,13 @@
         <v>1304</v>
       </c>
       <c r="F400" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="G400" t="s">
-        <v>1617</v>
+        <v>1623</v>
       </c>
       <c r="H400" t="s">
-        <v>1782</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16134,7 +16161,7 @@
         <v>1227</v>
       </c>
       <c r="H401" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16157,10 +16184,10 @@
         <v>1350</v>
       </c>
       <c r="G402" t="s">
-        <v>1713</v>
+        <v>1718</v>
       </c>
       <c r="H402" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16183,10 +16210,10 @@
         <v>1343</v>
       </c>
       <c r="G403" t="s">
-        <v>1714</v>
+        <v>1719</v>
       </c>
       <c r="H403" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16206,13 +16233,13 @@
         <v>1279</v>
       </c>
       <c r="F404" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="G404" t="s">
-        <v>1715</v>
+        <v>1720</v>
       </c>
       <c r="H404" t="s">
-        <v>1753</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16232,13 +16259,13 @@
         <v>1325</v>
       </c>
       <c r="F405" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="G405" t="s">
-        <v>1716</v>
+        <v>1721</v>
       </c>
       <c r="H405" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16264,7 +16291,7 @@
         <v>1089</v>
       </c>
       <c r="H406" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16284,13 +16311,13 @@
         <v>1294</v>
       </c>
       <c r="F407" t="s">
-        <v>1445</v>
+        <v>1449</v>
       </c>
       <c r="G407" t="s">
-        <v>1717</v>
+        <v>1722</v>
       </c>
       <c r="H407" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16313,10 +16340,10 @@
         <v>1285</v>
       </c>
       <c r="G408" t="s">
-        <v>1576</v>
+        <v>1657</v>
       </c>
       <c r="H408" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16342,7 +16369,7 @@
         <v>968</v>
       </c>
       <c r="H409" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16368,7 +16395,7 @@
         <v>1234</v>
       </c>
       <c r="H410" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16388,13 +16415,13 @@
         <v>1324</v>
       </c>
       <c r="F411" t="s">
-        <v>1446</v>
+        <v>1450</v>
       </c>
       <c r="G411" t="s">
-        <v>1718</v>
+        <v>1723</v>
       </c>
       <c r="H411" t="s">
-        <v>1769</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16417,10 +16444,10 @@
         <v>1285</v>
       </c>
       <c r="G412" t="s">
-        <v>1480</v>
+        <v>1483</v>
       </c>
       <c r="H412" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16440,13 +16467,13 @@
         <v>1312</v>
       </c>
       <c r="F413" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G413" t="s">
-        <v>1668</v>
+        <v>1674</v>
       </c>
       <c r="H413" t="s">
-        <v>1768</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16466,13 +16493,13 @@
         <v>1285</v>
       </c>
       <c r="F414" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G414" t="s">
-        <v>1719</v>
+        <v>1724</v>
       </c>
       <c r="H414" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16492,13 +16519,13 @@
         <v>1330</v>
       </c>
       <c r="F415" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="G415" t="s">
-        <v>1720</v>
+        <v>1725</v>
       </c>
       <c r="H415" t="s">
-        <v>1783</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16521,10 +16548,10 @@
         <v>1285</v>
       </c>
       <c r="G416" t="s">
-        <v>1518</v>
+        <v>1522</v>
       </c>
       <c r="H416" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16547,10 +16574,10 @@
         <v>1285</v>
       </c>
       <c r="G417" t="s">
-        <v>1524</v>
+        <v>1528</v>
       </c>
       <c r="H417" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16570,13 +16597,13 @@
         <v>1331</v>
       </c>
       <c r="F418" t="s">
-        <v>1382</v>
+        <v>1441</v>
       </c>
       <c r="G418" t="s">
-        <v>1721</v>
+        <v>1726</v>
       </c>
       <c r="H418" t="s">
-        <v>1770</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16596,13 +16623,13 @@
         <v>1295</v>
       </c>
       <c r="F419" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G419" t="s">
-        <v>1668</v>
+        <v>1674</v>
       </c>
       <c r="H419" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16622,13 +16649,13 @@
         <v>1285</v>
       </c>
       <c r="F420" t="s">
-        <v>1447</v>
+        <v>1451</v>
       </c>
       <c r="G420" t="s">
-        <v>1722</v>
+        <v>1727</v>
       </c>
       <c r="H420" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16648,13 +16675,13 @@
         <v>1294</v>
       </c>
       <c r="F421" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="G421" t="s">
-        <v>1723</v>
+        <v>1728</v>
       </c>
       <c r="H421" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16674,13 +16701,13 @@
         <v>1286</v>
       </c>
       <c r="F422" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G422" t="s">
-        <v>1668</v>
+        <v>1674</v>
       </c>
       <c r="H422" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16706,7 +16733,7 @@
         <v>1065</v>
       </c>
       <c r="H423" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16732,7 +16759,7 @@
         <v>1245</v>
       </c>
       <c r="H424" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16752,13 +16779,13 @@
         <v>1298</v>
       </c>
       <c r="F425" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="G425" t="s">
-        <v>1724</v>
+        <v>1729</v>
       </c>
       <c r="H425" t="s">
-        <v>1753</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16778,13 +16805,13 @@
         <v>1330</v>
       </c>
       <c r="F426" t="s">
-        <v>1448</v>
+        <v>1452</v>
       </c>
       <c r="G426" t="s">
-        <v>1725</v>
+        <v>1730</v>
       </c>
       <c r="H426" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16810,7 +16837,7 @@
         <v>1211</v>
       </c>
       <c r="H427" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16833,10 +16860,10 @@
         <v>1294</v>
       </c>
       <c r="G428" t="s">
-        <v>1611</v>
+        <v>1617</v>
       </c>
       <c r="H428" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -16856,7 +16883,7 @@
         <v>1285</v>
       </c>
       <c r="H429" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -16876,13 +16903,13 @@
         <v>1294</v>
       </c>
       <c r="F430" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="G430" t="s">
-        <v>1726</v>
+        <v>1731</v>
       </c>
       <c r="H430" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -16905,10 +16932,10 @@
         <v>1343</v>
       </c>
       <c r="G431" t="s">
-        <v>1727</v>
+        <v>1732</v>
       </c>
       <c r="H431" t="s">
-        <v>1784</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -16934,7 +16961,7 @@
         <v>1089</v>
       </c>
       <c r="H432" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -16954,13 +16981,13 @@
         <v>1294</v>
       </c>
       <c r="F433" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="G433" t="s">
-        <v>1728</v>
+        <v>1733</v>
       </c>
       <c r="H433" t="s">
-        <v>1753</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -16980,13 +17007,13 @@
         <v>1294</v>
       </c>
       <c r="F434" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="G434" t="s">
-        <v>1729</v>
+        <v>1734</v>
       </c>
       <c r="H434" t="s">
-        <v>1780</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -17006,13 +17033,13 @@
         <v>1285</v>
       </c>
       <c r="F435" t="s">
-        <v>1449</v>
+        <v>1453</v>
       </c>
       <c r="G435" t="s">
-        <v>1730</v>
+        <v>1735</v>
       </c>
       <c r="H435" t="s">
-        <v>1771</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17035,10 +17062,10 @@
         <v>1341</v>
       </c>
       <c r="G436" t="s">
-        <v>1731</v>
+        <v>1736</v>
       </c>
       <c r="H436" t="s">
-        <v>1753</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17057,14 +17084,8 @@
       <c r="E437" t="s">
         <v>1294</v>
       </c>
-      <c r="F437" t="s">
-        <v>1294</v>
-      </c>
-      <c r="G437" t="s">
-        <v>1732</v>
-      </c>
       <c r="H437" t="s">
-        <v>1753</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17090,7 +17111,7 @@
         <v>1089</v>
       </c>
       <c r="H438" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17113,10 +17134,10 @@
         <v>1350</v>
       </c>
       <c r="G439" t="s">
-        <v>1733</v>
+        <v>1737</v>
       </c>
       <c r="H439" t="s">
-        <v>1753</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17136,13 +17157,13 @@
         <v>1279</v>
       </c>
       <c r="F440" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="G440" t="s">
-        <v>1734</v>
+        <v>1738</v>
       </c>
       <c r="H440" t="s">
-        <v>1753</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17162,13 +17183,13 @@
         <v>1279</v>
       </c>
       <c r="F441" t="s">
-        <v>1450</v>
+        <v>1454</v>
       </c>
       <c r="G441" t="s">
-        <v>1735</v>
+        <v>1739</v>
       </c>
       <c r="H441" t="s">
-        <v>1756</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17188,13 +17209,13 @@
         <v>1279</v>
       </c>
       <c r="F442" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G442" t="s">
-        <v>1736</v>
+        <v>1740</v>
       </c>
       <c r="H442" t="s">
-        <v>1753</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17214,13 +17235,13 @@
         <v>1294</v>
       </c>
       <c r="F443" t="s">
-        <v>1451</v>
+        <v>1352</v>
       </c>
       <c r="G443" t="s">
-        <v>1737</v>
+        <v>1741</v>
       </c>
       <c r="H443" t="s">
-        <v>1753</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17243,10 +17264,10 @@
         <v>1339</v>
       </c>
       <c r="G444" t="s">
-        <v>1534</v>
+        <v>1538</v>
       </c>
       <c r="H444" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17266,13 +17287,13 @@
         <v>1332</v>
       </c>
       <c r="F445" t="s">
-        <v>1452</v>
+        <v>1455</v>
       </c>
       <c r="G445" t="s">
-        <v>1738</v>
+        <v>1742</v>
       </c>
       <c r="H445" t="s">
-        <v>1785</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17292,13 +17313,13 @@
         <v>1279</v>
       </c>
       <c r="F446" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="G446" t="s">
-        <v>1739</v>
+        <v>1743</v>
       </c>
       <c r="H446" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17321,10 +17342,10 @@
         <v>1294</v>
       </c>
       <c r="G447" t="s">
-        <v>1740</v>
+        <v>1744</v>
       </c>
       <c r="H447" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17347,10 +17368,10 @@
         <v>1339</v>
       </c>
       <c r="G448" t="s">
-        <v>1741</v>
+        <v>1745</v>
       </c>
       <c r="H448" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17370,13 +17391,13 @@
         <v>1294</v>
       </c>
       <c r="F449" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="G449" t="s">
-        <v>1742</v>
+        <v>1746</v>
       </c>
       <c r="H449" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17402,7 +17423,7 @@
         <v>968</v>
       </c>
       <c r="H450" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17428,7 +17449,7 @@
         <v>968</v>
       </c>
       <c r="H451" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17451,10 +17472,10 @@
         <v>1350</v>
       </c>
       <c r="G452" t="s">
-        <v>1743</v>
+        <v>1747</v>
       </c>
       <c r="H452" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17474,13 +17495,13 @@
         <v>1294</v>
       </c>
       <c r="F453" t="s">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="G453" t="s">
-        <v>1744</v>
+        <v>1748</v>
       </c>
       <c r="H453" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17500,13 +17521,13 @@
         <v>1333</v>
       </c>
       <c r="F454" t="s">
-        <v>1454</v>
+        <v>1457</v>
       </c>
       <c r="G454" t="s">
-        <v>1745</v>
+        <v>1749</v>
       </c>
       <c r="H454" t="s">
-        <v>1772</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17526,13 +17547,13 @@
         <v>1334</v>
       </c>
       <c r="F455" t="s">
-        <v>1342</v>
+        <v>1381</v>
       </c>
       <c r="G455" t="s">
-        <v>1746</v>
+        <v>1750</v>
       </c>
       <c r="H455" t="s">
-        <v>1777</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17552,13 +17573,13 @@
         <v>1279</v>
       </c>
       <c r="F456" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="G456" t="s">
-        <v>1747</v>
+        <v>1751</v>
       </c>
       <c r="H456" t="s">
-        <v>1775</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17578,13 +17599,13 @@
         <v>1279</v>
       </c>
       <c r="F457" t="s">
-        <v>1451</v>
+        <v>1458</v>
       </c>
       <c r="G457" t="s">
-        <v>1748</v>
+        <v>1752</v>
       </c>
       <c r="H457" t="s">
-        <v>1753</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17610,7 +17631,7 @@
         <v>1211</v>
       </c>
       <c r="H458" t="s">
-        <v>1786</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17630,13 +17651,13 @@
         <v>1294</v>
       </c>
       <c r="F459" t="s">
-        <v>1455</v>
+        <v>1370</v>
       </c>
       <c r="G459" t="s">
-        <v>1749</v>
+        <v>1753</v>
       </c>
       <c r="H459" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17659,10 +17680,10 @@
         <v>1341</v>
       </c>
       <c r="G460" t="s">
-        <v>1750</v>
+        <v>1754</v>
       </c>
       <c r="H460" t="s">
-        <v>1753</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17682,13 +17703,13 @@
         <v>1322</v>
       </c>
       <c r="F461" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="G461" t="s">
-        <v>1751</v>
+        <v>1755</v>
       </c>
       <c r="H461" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17714,7 +17735,7 @@
         <v>968</v>
       </c>
       <c r="H462" t="s">
-        <v>1753</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17734,13 +17755,13 @@
         <v>1336</v>
       </c>
       <c r="F463" t="s">
-        <v>1294</v>
+        <v>1358</v>
       </c>
       <c r="G463" t="s">
-        <v>1611</v>
+        <v>1756</v>
       </c>
       <c r="H463" t="s">
-        <v>1756</v>
+        <v>1761</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Categorization/plsa-partial-ner-elmo_ori-money.xlsx
+++ b/Results/Categorization/plsa-partial-ner-elmo_ori-money.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3233" uniqueCount="1792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3233" uniqueCount="1788">
   <si>
     <t>id</t>
   </si>
@@ -4027,370 +4027,358 @@
     <t>FOOD,PRICES,FOOD</t>
   </si>
   <si>
-    <t>AMBIENCE|SERVICE|SERVICE|AMBIENCE</t>
+    <t>AMBIENCE|AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD</t>
   </si>
   <si>
     <t>AMBIENCE|FOOD|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES</t>
+    <t>FOOD|FOOD|PRICES|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|SERVICE</t>
   </si>
   <si>
     <t>SERVICE|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|PRICES|PRICES|FOOD|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE|AMBIENCE|FOOD</t>
   </si>
   <si>
     <t>FOOD|PRICES|FOOD|PRICES</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE</t>
-  </si>
-  <si>
     <t>AMBIENCE|AMBIENCE|SERVICE</t>
   </si>
   <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE|FOOD</t>
+  </si>
+  <si>
     <t>PRICES|AMBIENCE|PRICES</t>
   </si>
   <si>
-    <t>SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|FOOD|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+    <t>AMBIENCE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|FOOD|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|PRICES</t>
   </si>
   <si>
     <t>PRICES|SERVICE</t>
   </si>
   <si>
-    <t>FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD</t>
+    <t>FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|FOOD|PRICES</t>
   </si>
   <si>
     <t>AMBIENCE|FOOD|PRICES</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|PRICES|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|PRICES|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|PRICES|PRICES|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES|AMBIENCE|FOOD|FOOD|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES|FOOD|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|PRICES|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES</t>
+    <t>FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|FOOD|PRICES</t>
   </si>
   <si>
     <t>place|rude|staff|like</t>
@@ -4456,7 +4444,7 @@
     <t>menu|worth</t>
   </si>
   <si>
-    <t>food|$6!-</t>
+    <t>food|$6</t>
   </si>
   <si>
     <t>great|dish</t>
@@ -4543,7 +4531,7 @@
     <t>pizza|like</t>
   </si>
   <si>
-    <t>toppings|$20!-|$3!-</t>
+    <t>toppings|$20|$3</t>
   </si>
   <si>
     <t>food|wait</t>
@@ -4606,7 +4594,7 @@
     <t>moules|lobster|ravioli</t>
   </si>
   <si>
-    <t>price|$8.00!-</t>
+    <t>price|$8.00</t>
   </si>
   <si>
     <t>price|wine|well|always</t>
@@ -4747,7 +4735,7 @@
     <t>good|well</t>
   </si>
   <si>
-    <t>food|menu|$18!-</t>
+    <t>food|menu|$18</t>
   </si>
   <si>
     <t>service|great|price|food</t>
@@ -4756,7 +4744,7 @@
     <t>atmosphere|wait</t>
   </si>
   <si>
-    <t>price|reasonable|dish|$3-6!-</t>
+    <t>price|reasonable|dish|$3-6</t>
   </si>
   <si>
     <t>great|well</t>
@@ -4813,7 +4801,7 @@
     <t>price|restaurant|wine|menu</t>
   </si>
   <si>
-    <t>wine|$70!-|$30!-</t>
+    <t>wine|$70|$30</t>
   </si>
   <si>
     <t>service|price|would</t>
@@ -4921,7 +4909,7 @@
     <t>rude|restaurant</t>
   </si>
   <si>
-    <t>like|$7!-</t>
+    <t>like|$7</t>
   </si>
   <si>
     <t>seats|wall|benches</t>
@@ -4942,7 +4930,7 @@
     <t>good|price|though|even|food</t>
   </si>
   <si>
-    <t>good|price|though|$24!-</t>
+    <t>good|price|though|$24</t>
   </si>
   <si>
     <t>special|wait</t>
@@ -4951,7 +4939,7 @@
     <t>food|nice|wait</t>
   </si>
   <si>
-    <t>great|$10!-</t>
+    <t>great|$10</t>
   </si>
   <si>
     <t>price|wine</t>
@@ -5029,7 +5017,7 @@
     <t>place|even|well</t>
   </si>
   <si>
-    <t>great|like|100 dollar!-</t>
+    <t>great|like|100 dollar</t>
   </si>
   <si>
     <t>great|worth</t>
@@ -5041,13 +5029,13 @@
     <t>price|food</t>
   </si>
   <si>
-    <t>staff|wait|$*!-</t>
+    <t>staff|wait|$*</t>
   </si>
   <si>
     <t>best|atmosphere</t>
   </si>
   <si>
-    <t>great|great|$8.50!-</t>
+    <t>great|great|$8.50</t>
   </si>
   <si>
     <t>good|price|make|reasonable</t>
@@ -5146,16 +5134,16 @@
     <t>price|food|nice|decor|reasonable</t>
   </si>
   <si>
-    <t>sushi|$20!-</t>
-  </si>
-  <si>
-    <t>price|$15!-</t>
+    <t>sushi|$20</t>
+  </si>
+  <si>
+    <t>price|$15</t>
   </si>
   <si>
     <t>restaurant|really</t>
   </si>
   <si>
-    <t>good|though|$60!-</t>
+    <t>good|though|$60</t>
   </si>
   <si>
     <t>place|worth</t>
@@ -5170,19 +5158,19 @@
     <t>though|restaurant|nice</t>
   </si>
   <si>
-    <t>dinner|$400.00!-</t>
+    <t>dinner|$400.00</t>
   </si>
   <si>
     <t>nice|really</t>
   </si>
   <si>
-    <t>plate|guacamole|$11!-</t>
+    <t>plate|guacamole|$11</t>
   </si>
   <si>
     <t>place|good|food</t>
   </si>
   <si>
-    <t>water|table|voss|bottles|water|piece|$8!-</t>
+    <t>water|table|voss|bottles|water|piece|$8</t>
   </si>
   <si>
     <t>good|price|friendly|food</t>
@@ -5206,10 +5194,10 @@
     <t>nice|atmosphere|make</t>
   </si>
   <si>
-    <t>service|price|dish|$10!-</t>
-  </si>
-  <si>
-    <t>wine|dinner|$500!-</t>
+    <t>service|price|dish|$10</t>
+  </si>
+  <si>
+    <t>wine|dinner|$500</t>
   </si>
   <si>
     <t>environment|name</t>
@@ -5224,13 +5212,13 @@
     <t>environment|lot|guys|trophy|wives|escorts</t>
   </si>
   <si>
-    <t>service|$500!-</t>
-  </si>
-  <si>
-    <t>drinks|$14!-</t>
-  </si>
-  <si>
-    <t>would|dinner|$55!-</t>
+    <t>service|$500</t>
+  </si>
+  <si>
+    <t>drinks|$14</t>
+  </si>
+  <si>
+    <t>would|dinner|$55</t>
   </si>
   <si>
     <t>good|food|would|dinner</t>
@@ -5242,10 +5230,10 @@
     <t>restaurant|never</t>
   </si>
   <si>
-    <t>place|price|restaurant|would|$25!-</t>
-  </si>
-  <si>
-    <t>place|food|$!-</t>
+    <t>place|price|restaurant|would|$25</t>
+  </si>
+  <si>
+    <t>place|food|$</t>
   </si>
   <si>
     <t>worth</t>
@@ -5254,16 +5242,16 @@
     <t>place|dinner</t>
   </si>
   <si>
-    <t>stone|bowl|$2!-</t>
-  </si>
-  <si>
-    <t>menu|$29!-</t>
+    <t>stone|bowl|$2</t>
+  </si>
+  <si>
+    <t>menu|$29</t>
   </si>
   <si>
     <t>great|good|price|reasonable</t>
   </si>
   <si>
-    <t>service|rude|even|well|$500!-</t>
+    <t>service|rude|even|well|$500</t>
   </si>
   <si>
     <t>service|great|good|salad</t>
@@ -5272,13 +5260,13 @@
     <t>good|price|food|would</t>
   </si>
   <si>
-    <t>restaurant|never|$24!-</t>
+    <t>restaurant|never|$24</t>
   </si>
   <si>
     <t>menu|would|reasonable</t>
   </si>
   <si>
-    <t>service|$60!-</t>
+    <t>service|$60</t>
   </si>
   <si>
     <t>place|price</t>
@@ -5796,10 +5784,10 @@
         <v>1337</v>
       </c>
       <c r="G2" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="H2" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5825,7 +5813,7 @@
         <v>933</v>
       </c>
       <c r="H3" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5848,10 +5836,10 @@
         <v>1338</v>
       </c>
       <c r="G4" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="H4" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5871,13 +5859,13 @@
         <v>1277</v>
       </c>
       <c r="F5" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G5" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="H5" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5900,10 +5888,10 @@
         <v>1339</v>
       </c>
       <c r="G6" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="H6" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5926,10 +5914,10 @@
         <v>1340</v>
       </c>
       <c r="G7" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="H7" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5949,13 +5937,13 @@
         <v>1277</v>
       </c>
       <c r="F8" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="G8" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="H8" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5978,10 +5966,10 @@
         <v>1341</v>
       </c>
       <c r="G9" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="H9" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6004,10 +5992,10 @@
         <v>1342</v>
       </c>
       <c r="G10" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="H10" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6027,13 +6015,13 @@
         <v>1278</v>
       </c>
       <c r="F11" t="s">
-        <v>1294</v>
+        <v>1278</v>
       </c>
       <c r="G11" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="H11" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6059,7 +6047,7 @@
         <v>933</v>
       </c>
       <c r="H12" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6079,13 +6067,13 @@
         <v>1278</v>
       </c>
       <c r="F13" t="s">
-        <v>1294</v>
+        <v>1278</v>
       </c>
       <c r="G13" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="H13" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6105,13 +6093,13 @@
         <v>1277</v>
       </c>
       <c r="F14" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="G14" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="H14" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6131,13 +6119,13 @@
         <v>1283</v>
       </c>
       <c r="F15" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="G15" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="H15" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6157,13 +6145,13 @@
         <v>1284</v>
       </c>
       <c r="F16" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G16" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="H16" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6183,13 +6171,13 @@
         <v>1277</v>
       </c>
       <c r="F17" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="G17" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="H17" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6209,13 +6197,13 @@
         <v>1276</v>
       </c>
       <c r="F18" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G18" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="H18" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6241,7 +6229,7 @@
         <v>933</v>
       </c>
       <c r="H19" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6264,10 +6252,10 @@
         <v>1346</v>
       </c>
       <c r="G20" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="H20" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6287,13 +6275,13 @@
         <v>1285</v>
       </c>
       <c r="F21" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G21" t="s">
         <v>1120</v>
       </c>
       <c r="H21" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6319,7 +6307,7 @@
         <v>947</v>
       </c>
       <c r="H22" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6339,13 +6327,13 @@
         <v>1276</v>
       </c>
       <c r="F23" t="s">
-        <v>1347</v>
+        <v>1338</v>
       </c>
       <c r="G23" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="H23" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6368,10 +6356,10 @@
         <v>1339</v>
       </c>
       <c r="G24" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="H24" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6397,7 +6385,7 @@
         <v>947</v>
       </c>
       <c r="H25" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6423,7 +6411,7 @@
         <v>968</v>
       </c>
       <c r="H26" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6449,7 +6437,7 @@
         <v>996</v>
       </c>
       <c r="H27" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6469,13 +6457,13 @@
         <v>1278</v>
       </c>
       <c r="F28" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G28" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="H28" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6495,13 +6483,13 @@
         <v>1279</v>
       </c>
       <c r="F29" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G29" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="H29" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6521,13 +6509,13 @@
         <v>1284</v>
       </c>
       <c r="F30" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G30" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="H30" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6547,13 +6535,13 @@
         <v>1286</v>
       </c>
       <c r="F31" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G31" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="H31" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6573,13 +6561,13 @@
         <v>1286</v>
       </c>
       <c r="F32" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G32" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="H32" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6602,10 +6590,10 @@
         <v>1339</v>
       </c>
       <c r="G33" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="H33" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6625,13 +6613,13 @@
         <v>1284</v>
       </c>
       <c r="F34" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G34" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="H34" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6654,10 +6642,10 @@
         <v>1285</v>
       </c>
       <c r="G35" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="H35" t="s">
-        <v>1765</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6677,13 +6665,13 @@
         <v>1276</v>
       </c>
       <c r="F36" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G36" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="H36" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6703,13 +6691,13 @@
         <v>1276</v>
       </c>
       <c r="F37" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G37" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="H37" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6729,13 +6717,13 @@
         <v>1278</v>
       </c>
       <c r="F38" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G38" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="H38" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6755,13 +6743,13 @@
         <v>1285</v>
       </c>
       <c r="F39" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G39" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="H39" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6781,13 +6769,13 @@
         <v>1285</v>
       </c>
       <c r="F40" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="G40" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="H40" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6807,13 +6795,13 @@
         <v>1280</v>
       </c>
       <c r="F41" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="G41" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="H41" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6833,13 +6821,13 @@
         <v>1278</v>
       </c>
       <c r="F42" t="s">
-        <v>1356</v>
+        <v>1338</v>
       </c>
       <c r="G42" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="H42" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6859,13 +6847,13 @@
         <v>1285</v>
       </c>
       <c r="F43" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="G43" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="H43" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6891,7 +6879,7 @@
         <v>968</v>
       </c>
       <c r="H44" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6917,7 +6905,7 @@
         <v>933</v>
       </c>
       <c r="H45" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6943,7 +6931,7 @@
         <v>933</v>
       </c>
       <c r="H46" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -6963,13 +6951,13 @@
         <v>1277</v>
       </c>
       <c r="F47" t="s">
-        <v>1352</v>
+        <v>1339</v>
       </c>
       <c r="G47" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="H47" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -6989,13 +6977,13 @@
         <v>1279</v>
       </c>
       <c r="F48" t="s">
-        <v>1358</v>
+        <v>1339</v>
       </c>
       <c r="G48" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="H48" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7015,13 +7003,13 @@
         <v>1282</v>
       </c>
       <c r="F49" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="G49" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="H49" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7041,13 +7029,13 @@
         <v>1278</v>
       </c>
       <c r="F50" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G50" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="H50" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7067,13 +7055,13 @@
         <v>1282</v>
       </c>
       <c r="F51" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="G51" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="H51" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7093,13 +7081,13 @@
         <v>1278</v>
       </c>
       <c r="F52" t="s">
-        <v>1361</v>
+        <v>1338</v>
       </c>
       <c r="G52" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="H52" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7119,13 +7107,13 @@
         <v>1277</v>
       </c>
       <c r="F53" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="G53" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="H53" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7145,13 +7133,13 @@
         <v>1277</v>
       </c>
       <c r="F54" t="s">
-        <v>1362</v>
+        <v>1339</v>
       </c>
       <c r="G54" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="H54" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7171,13 +7159,13 @@
         <v>1290</v>
       </c>
       <c r="F55" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
       <c r="G55" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="H55" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7197,13 +7185,13 @@
         <v>1291</v>
       </c>
       <c r="F56" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
       <c r="G56" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="H56" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7223,13 +7211,13 @@
         <v>1276</v>
       </c>
       <c r="F57" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="G57" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="H57" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7249,13 +7237,13 @@
         <v>1279</v>
       </c>
       <c r="F58" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="G58" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="H58" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7275,13 +7263,13 @@
         <v>1292</v>
       </c>
       <c r="F59" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="G59" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="H59" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7301,13 +7289,13 @@
         <v>1276</v>
       </c>
       <c r="F60" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="G60" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="H60" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7333,7 +7321,7 @@
         <v>933</v>
       </c>
       <c r="H61" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7353,13 +7341,13 @@
         <v>1290</v>
       </c>
       <c r="F62" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="G62" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="H62" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7379,13 +7367,13 @@
         <v>1276</v>
       </c>
       <c r="F63" t="s">
-        <v>1369</v>
+        <v>1346</v>
       </c>
       <c r="G63" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="H63" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7405,13 +7393,13 @@
         <v>1278</v>
       </c>
       <c r="F64" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G64" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="H64" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7431,13 +7419,13 @@
         <v>1276</v>
       </c>
       <c r="F65" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G65" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="H65" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7457,13 +7445,13 @@
         <v>1276</v>
       </c>
       <c r="F66" t="s">
-        <v>1343</v>
+        <v>1346</v>
       </c>
       <c r="G66" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="H66" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7483,13 +7471,13 @@
         <v>1293</v>
       </c>
       <c r="F67" t="s">
-        <v>1352</v>
+        <v>1339</v>
       </c>
       <c r="G67" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="H67" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7515,7 +7503,7 @@
         <v>989</v>
       </c>
       <c r="H68" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7535,13 +7523,13 @@
         <v>1295</v>
       </c>
       <c r="F69" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="G69" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="H69" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7561,13 +7549,13 @@
         <v>1278</v>
       </c>
       <c r="F70" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G70" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="H70" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7593,7 +7581,7 @@
         <v>933</v>
       </c>
       <c r="H71" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7613,13 +7601,13 @@
         <v>1296</v>
       </c>
       <c r="F72" t="s">
-        <v>1371</v>
+        <v>1351</v>
       </c>
       <c r="G72" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="H72" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7639,13 +7627,13 @@
         <v>1276</v>
       </c>
       <c r="F73" t="s">
-        <v>1342</v>
+        <v>1365</v>
       </c>
       <c r="G73" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="H73" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7665,13 +7653,13 @@
         <v>1284</v>
       </c>
       <c r="F74" t="s">
-        <v>1372</v>
+        <v>1348</v>
       </c>
       <c r="G74" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="H74" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7697,7 +7685,7 @@
         <v>985</v>
       </c>
       <c r="H75" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7717,13 +7705,13 @@
         <v>1285</v>
       </c>
       <c r="F76" t="s">
-        <v>1343</v>
+        <v>1366</v>
       </c>
       <c r="G76" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="H76" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7743,13 +7731,13 @@
         <v>1278</v>
       </c>
       <c r="F77" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G77" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="H77" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7769,13 +7757,13 @@
         <v>1289</v>
       </c>
       <c r="F78" t="s">
-        <v>1339</v>
+        <v>1367</v>
       </c>
       <c r="G78" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="H78" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7795,13 +7783,13 @@
         <v>1278</v>
       </c>
       <c r="F79" t="s">
-        <v>1373</v>
+        <v>1339</v>
       </c>
       <c r="G79" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="H79" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7824,10 +7812,10 @@
         <v>1338</v>
       </c>
       <c r="G80" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="H80" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7850,10 +7838,10 @@
         <v>1338</v>
       </c>
       <c r="G81" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="H81" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7873,13 +7861,13 @@
         <v>1297</v>
       </c>
       <c r="F82" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="G82" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="H82" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7905,7 +7893,7 @@
         <v>933</v>
       </c>
       <c r="H83" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -7931,7 +7919,7 @@
         <v>1000</v>
       </c>
       <c r="H84" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -7951,13 +7939,13 @@
         <v>1282</v>
       </c>
       <c r="F85" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G85" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="H85" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -7980,10 +7968,10 @@
         <v>1278</v>
       </c>
       <c r="G86" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="H86" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8003,13 +7991,13 @@
         <v>1285</v>
       </c>
       <c r="F87" t="s">
-        <v>1352</v>
+        <v>1369</v>
       </c>
       <c r="G87" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="H87" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8029,13 +8017,13 @@
         <v>1284</v>
       </c>
       <c r="F88" t="s">
-        <v>1362</v>
+        <v>1345</v>
       </c>
       <c r="G88" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="H88" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8055,13 +8043,13 @@
         <v>1278</v>
       </c>
       <c r="F89" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G89" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="H89" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8087,7 +8075,7 @@
         <v>968</v>
       </c>
       <c r="H90" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8107,13 +8095,13 @@
         <v>1286</v>
       </c>
       <c r="F91" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="G91" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="H91" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8136,10 +8124,10 @@
         <v>1338</v>
       </c>
       <c r="G92" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="H92" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8159,13 +8147,13 @@
         <v>1277</v>
       </c>
       <c r="F93" t="s">
-        <v>1376</v>
+        <v>1356</v>
       </c>
       <c r="G93" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="H93" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8185,13 +8173,13 @@
         <v>1289</v>
       </c>
       <c r="F94" t="s">
-        <v>1357</v>
+        <v>1338</v>
       </c>
       <c r="G94" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="H94" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8211,13 +8199,13 @@
         <v>1300</v>
       </c>
       <c r="F95" t="s">
-        <v>1377</v>
+        <v>1342</v>
       </c>
       <c r="G95" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="H95" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8237,13 +8225,13 @@
         <v>1278</v>
       </c>
       <c r="F96" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G96" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="H96" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8263,13 +8251,13 @@
         <v>1277</v>
       </c>
       <c r="F97" t="s">
-        <v>1356</v>
+        <v>1338</v>
       </c>
       <c r="G97" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="H97" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8289,13 +8277,13 @@
         <v>1276</v>
       </c>
       <c r="F98" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="G98" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="H98" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8315,13 +8303,13 @@
         <v>1279</v>
       </c>
       <c r="F99" t="s">
-        <v>1378</v>
+        <v>1349</v>
       </c>
       <c r="G99" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="H99" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8341,13 +8329,13 @@
         <v>1279</v>
       </c>
       <c r="F100" t="s">
-        <v>1379</v>
+        <v>1371</v>
       </c>
       <c r="G100" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="H100" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8367,13 +8355,13 @@
         <v>1278</v>
       </c>
       <c r="F101" t="s">
-        <v>1294</v>
+        <v>1278</v>
       </c>
       <c r="G101" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="H101" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8393,13 +8381,13 @@
         <v>1285</v>
       </c>
       <c r="F102" t="s">
-        <v>1343</v>
+        <v>1369</v>
       </c>
       <c r="G102" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="H102" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8419,13 +8407,13 @@
         <v>1285</v>
       </c>
       <c r="F103" t="s">
-        <v>1278</v>
+        <v>1285</v>
       </c>
       <c r="G103" t="s">
         <v>968</v>
       </c>
       <c r="H103" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8445,13 +8433,13 @@
         <v>1277</v>
       </c>
       <c r="F104" t="s">
-        <v>1373</v>
+        <v>1339</v>
       </c>
       <c r="G104" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="H104" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8477,7 +8465,7 @@
         <v>931</v>
       </c>
       <c r="H105" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8497,13 +8485,13 @@
         <v>1286</v>
       </c>
       <c r="F106" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="G106" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="H106" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8523,13 +8511,13 @@
         <v>1276</v>
       </c>
       <c r="F107" t="s">
-        <v>1371</v>
+        <v>1351</v>
       </c>
       <c r="G107" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="H107" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8549,13 +8537,13 @@
         <v>1296</v>
       </c>
       <c r="F108" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="G108" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="H108" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8575,13 +8563,13 @@
         <v>1298</v>
       </c>
       <c r="F109" t="s">
-        <v>1294</v>
+        <v>1278</v>
       </c>
       <c r="G109" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="H109" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8601,13 +8589,13 @@
         <v>1276</v>
       </c>
       <c r="F110" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
       <c r="G110" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="H110" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8630,10 +8618,10 @@
         <v>1339</v>
       </c>
       <c r="G111" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="H111" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8653,13 +8641,13 @@
         <v>1277</v>
       </c>
       <c r="F112" t="s">
-        <v>1356</v>
+        <v>1338</v>
       </c>
       <c r="G112" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="H112" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8685,7 +8673,7 @@
         <v>1065</v>
       </c>
       <c r="H113" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8711,7 +8699,7 @@
         <v>947</v>
       </c>
       <c r="H114" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8731,13 +8719,13 @@
         <v>1296</v>
       </c>
       <c r="F115" t="s">
-        <v>1381</v>
+        <v>1373</v>
       </c>
       <c r="G115" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="H115" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8757,13 +8745,13 @@
         <v>1277</v>
       </c>
       <c r="F116" t="s">
-        <v>1356</v>
+        <v>1338</v>
       </c>
       <c r="G116" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="H116" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8783,13 +8771,13 @@
         <v>1278</v>
       </c>
       <c r="F117" t="s">
-        <v>1382</v>
+        <v>1338</v>
       </c>
       <c r="G117" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="H117" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8809,13 +8797,13 @@
         <v>1296</v>
       </c>
       <c r="F118" t="s">
-        <v>1383</v>
+        <v>1374</v>
       </c>
       <c r="G118" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="H118" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8835,13 +8823,13 @@
         <v>1278</v>
       </c>
       <c r="F119" t="s">
-        <v>1384</v>
+        <v>1356</v>
       </c>
       <c r="G119" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="H119" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8867,7 +8855,7 @@
         <v>968</v>
       </c>
       <c r="H120" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8893,7 +8881,7 @@
         <v>947</v>
       </c>
       <c r="H121" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -8919,7 +8907,7 @@
         <v>931</v>
       </c>
       <c r="H122" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -8945,7 +8933,7 @@
         <v>933</v>
       </c>
       <c r="H123" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -8965,13 +8953,13 @@
         <v>1278</v>
       </c>
       <c r="F124" t="s">
-        <v>1378</v>
+        <v>1339</v>
       </c>
       <c r="G124" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="H124" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -8991,13 +8979,13 @@
         <v>1278</v>
       </c>
       <c r="F125" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G125" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="H125" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -9023,7 +9011,7 @@
         <v>1000</v>
       </c>
       <c r="H126" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9043,13 +9031,13 @@
         <v>1277</v>
       </c>
       <c r="F127" t="s">
-        <v>1294</v>
+        <v>1278</v>
       </c>
       <c r="G127" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="H127" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9069,13 +9057,13 @@
         <v>1276</v>
       </c>
       <c r="F128" t="s">
-        <v>1346</v>
+        <v>1375</v>
       </c>
       <c r="G128" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="H128" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9095,13 +9083,13 @@
         <v>1277</v>
       </c>
       <c r="F129" t="s">
-        <v>1385</v>
+        <v>1356</v>
       </c>
       <c r="G129" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="H129" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9121,13 +9109,13 @@
         <v>1277</v>
       </c>
       <c r="F130" t="s">
-        <v>1361</v>
+        <v>1338</v>
       </c>
       <c r="G130" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="H130" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9147,13 +9135,13 @@
         <v>1298</v>
       </c>
       <c r="F131" t="s">
-        <v>1339</v>
+        <v>1367</v>
       </c>
       <c r="G131" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="H131" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9173,13 +9161,13 @@
         <v>1276</v>
       </c>
       <c r="F132" t="s">
-        <v>1338</v>
+        <v>1376</v>
       </c>
       <c r="G132" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="H132" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9199,13 +9187,13 @@
         <v>1277</v>
       </c>
       <c r="F133" t="s">
-        <v>1357</v>
+        <v>1338</v>
       </c>
       <c r="G133" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="H133" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9225,13 +9213,13 @@
         <v>1298</v>
       </c>
       <c r="F134" t="s">
-        <v>1343</v>
+        <v>1366</v>
       </c>
       <c r="G134" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="H134" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9251,13 +9239,13 @@
         <v>1298</v>
       </c>
       <c r="F135" t="s">
-        <v>1339</v>
+        <v>1367</v>
       </c>
       <c r="G135" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="H135" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9277,13 +9265,13 @@
         <v>1278</v>
       </c>
       <c r="F136" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G136" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="H136" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9303,13 +9291,13 @@
         <v>1277</v>
       </c>
       <c r="F137" t="s">
-        <v>1356</v>
+        <v>1338</v>
       </c>
       <c r="G137" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="H137" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9329,13 +9317,13 @@
         <v>1276</v>
       </c>
       <c r="F138" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G138" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="H138" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9355,13 +9343,13 @@
         <v>1298</v>
       </c>
       <c r="F139" t="s">
-        <v>1386</v>
+        <v>1377</v>
       </c>
       <c r="G139" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="H139" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9381,13 +9369,13 @@
         <v>1282</v>
       </c>
       <c r="F140" t="s">
-        <v>1356</v>
+        <v>1338</v>
       </c>
       <c r="G140" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="H140" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9413,7 +9401,7 @@
         <v>1050</v>
       </c>
       <c r="H141" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9433,13 +9421,13 @@
         <v>1278</v>
       </c>
       <c r="F142" t="s">
-        <v>1387</v>
+        <v>1373</v>
       </c>
       <c r="G142" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="H142" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9459,13 +9447,13 @@
         <v>1284</v>
       </c>
       <c r="F143" t="s">
-        <v>1362</v>
+        <v>1345</v>
       </c>
       <c r="G143" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="H143" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9485,13 +9473,13 @@
         <v>1277</v>
       </c>
       <c r="F144" t="s">
-        <v>1388</v>
+        <v>1356</v>
       </c>
       <c r="G144" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="H144" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9511,13 +9499,13 @@
         <v>1282</v>
       </c>
       <c r="F145" t="s">
-        <v>1373</v>
+        <v>1339</v>
       </c>
       <c r="G145" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="H145" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9537,13 +9525,13 @@
         <v>1302</v>
       </c>
       <c r="F146" t="s">
-        <v>1362</v>
+        <v>1345</v>
       </c>
       <c r="G146" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="H146" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9569,7 +9557,7 @@
         <v>931</v>
       </c>
       <c r="H147" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9589,13 +9577,13 @@
         <v>1278</v>
       </c>
       <c r="F148" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G148" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="H148" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9615,13 +9603,13 @@
         <v>1277</v>
       </c>
       <c r="F149" t="s">
-        <v>1356</v>
+        <v>1338</v>
       </c>
       <c r="G149" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="H149" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9641,13 +9629,13 @@
         <v>1276</v>
       </c>
       <c r="F150" t="s">
-        <v>1372</v>
+        <v>1342</v>
       </c>
       <c r="G150" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="H150" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9667,13 +9655,13 @@
         <v>1303</v>
       </c>
       <c r="F151" t="s">
-        <v>1389</v>
+        <v>1378</v>
       </c>
       <c r="G151" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="H151" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9696,10 +9684,10 @@
         <v>1278</v>
       </c>
       <c r="G152" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="H152" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9719,13 +9707,13 @@
         <v>1304</v>
       </c>
       <c r="F153" t="s">
-        <v>1390</v>
+        <v>1379</v>
       </c>
       <c r="G153" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="H153" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9745,13 +9733,13 @@
         <v>1278</v>
       </c>
       <c r="F154" t="s">
-        <v>1356</v>
+        <v>1338</v>
       </c>
       <c r="G154" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="H154" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9771,13 +9759,13 @@
         <v>1278</v>
       </c>
       <c r="F155" t="s">
-        <v>1373</v>
+        <v>1339</v>
       </c>
       <c r="G155" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="H155" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9797,13 +9785,13 @@
         <v>1278</v>
       </c>
       <c r="F156" t="s">
-        <v>1373</v>
+        <v>1339</v>
       </c>
       <c r="G156" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="H156" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9823,13 +9811,13 @@
         <v>1278</v>
       </c>
       <c r="F157" t="s">
-        <v>1294</v>
+        <v>1278</v>
       </c>
       <c r="G157" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="H157" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9849,13 +9837,13 @@
         <v>1285</v>
       </c>
       <c r="F158" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G158" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="H158" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9875,13 +9863,13 @@
         <v>1285</v>
       </c>
       <c r="F159" t="s">
-        <v>1343</v>
+        <v>1369</v>
       </c>
       <c r="G159" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="H159" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9901,13 +9889,13 @@
         <v>1285</v>
       </c>
       <c r="F160" t="s">
-        <v>1343</v>
+        <v>1366</v>
       </c>
       <c r="G160" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="H160" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -9933,7 +9921,7 @@
         <v>1032</v>
       </c>
       <c r="H161" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -9953,13 +9941,13 @@
         <v>1278</v>
       </c>
       <c r="F162" t="s">
-        <v>1357</v>
+        <v>1380</v>
       </c>
       <c r="G162" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="H162" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -9985,7 +9973,7 @@
         <v>976</v>
       </c>
       <c r="H163" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -10005,13 +9993,13 @@
         <v>1279</v>
       </c>
       <c r="F164" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="G164" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="H164" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -10031,13 +10019,13 @@
         <v>1286</v>
       </c>
       <c r="F165" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
       <c r="G165" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="H165" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10057,13 +10045,13 @@
         <v>1278</v>
       </c>
       <c r="F166" t="s">
-        <v>1343</v>
+        <v>1366</v>
       </c>
       <c r="G166" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="H166" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10083,13 +10071,13 @@
         <v>1279</v>
       </c>
       <c r="F167" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
       <c r="G167" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="H167" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10109,13 +10097,13 @@
         <v>1305</v>
       </c>
       <c r="F168" t="s">
-        <v>1393</v>
+        <v>1383</v>
       </c>
       <c r="G168" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="H168" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10135,13 +10123,13 @@
         <v>1300</v>
       </c>
       <c r="F169" t="s">
-        <v>1394</v>
+        <v>1384</v>
       </c>
       <c r="G169" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="H169" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10161,13 +10149,13 @@
         <v>1306</v>
       </c>
       <c r="F170" t="s">
-        <v>1395</v>
+        <v>1385</v>
       </c>
       <c r="G170" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="H170" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10187,13 +10175,13 @@
         <v>1276</v>
       </c>
       <c r="F171" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="G171" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="H171" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10216,10 +10204,10 @@
         <v>1339</v>
       </c>
       <c r="G172" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="H172" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10242,10 +10230,10 @@
         <v>1278</v>
       </c>
       <c r="G173" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="H173" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10268,10 +10256,10 @@
         <v>1278</v>
       </c>
       <c r="G174" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="H174" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10291,13 +10279,13 @@
         <v>1307</v>
       </c>
       <c r="F175" t="s">
-        <v>1396</v>
+        <v>1386</v>
       </c>
       <c r="G175" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="H175" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10317,13 +10305,13 @@
         <v>1276</v>
       </c>
       <c r="F176" t="s">
-        <v>1343</v>
+        <v>1375</v>
       </c>
       <c r="G176" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="H176" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10343,13 +10331,13 @@
         <v>1284</v>
       </c>
       <c r="F177" t="s">
-        <v>1372</v>
+        <v>1348</v>
       </c>
       <c r="G177" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="H177" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10369,13 +10357,13 @@
         <v>1308</v>
       </c>
       <c r="F178" t="s">
-        <v>1397</v>
+        <v>1387</v>
       </c>
       <c r="G178" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="H178" t="s">
-        <v>1778</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10395,13 +10383,13 @@
         <v>1309</v>
       </c>
       <c r="F179" t="s">
-        <v>1398</v>
+        <v>1388</v>
       </c>
       <c r="G179" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="H179" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10421,13 +10409,13 @@
         <v>1293</v>
       </c>
       <c r="F180" t="s">
-        <v>1385</v>
+        <v>1389</v>
       </c>
       <c r="G180" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="H180" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10447,13 +10435,13 @@
         <v>1277</v>
       </c>
       <c r="F181" t="s">
-        <v>1339</v>
+        <v>1367</v>
       </c>
       <c r="G181" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="H181" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10479,7 +10467,7 @@
         <v>989</v>
       </c>
       <c r="H182" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10499,13 +10487,13 @@
         <v>1278</v>
       </c>
       <c r="F183" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G183" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="H183" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10528,10 +10516,10 @@
         <v>1339</v>
       </c>
       <c r="G184" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="H184" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10551,13 +10539,13 @@
         <v>1310</v>
       </c>
       <c r="F185" t="s">
-        <v>1346</v>
+        <v>1375</v>
       </c>
       <c r="G185" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="H185" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10577,13 +10565,13 @@
         <v>1285</v>
       </c>
       <c r="F186" t="s">
-        <v>1343</v>
+        <v>1366</v>
       </c>
       <c r="G186" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="H186" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10603,13 +10591,13 @@
         <v>1278</v>
       </c>
       <c r="F187" t="s">
-        <v>1373</v>
+        <v>1339</v>
       </c>
       <c r="G187" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="H187" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10635,7 +10623,7 @@
         <v>989</v>
       </c>
       <c r="H188" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10661,7 +10649,7 @@
         <v>947</v>
       </c>
       <c r="H189" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10687,7 +10675,7 @@
         <v>933</v>
       </c>
       <c r="H190" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10707,13 +10695,13 @@
         <v>1277</v>
       </c>
       <c r="F191" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="G191" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="H191" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10733,13 +10721,13 @@
         <v>1311</v>
       </c>
       <c r="F192" t="s">
-        <v>1346</v>
+        <v>1375</v>
       </c>
       <c r="G192" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="H192" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10759,13 +10747,13 @@
         <v>1284</v>
       </c>
       <c r="F193" t="s">
-        <v>1399</v>
+        <v>1348</v>
       </c>
       <c r="G193" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="H193" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10788,10 +10776,10 @@
         <v>1278</v>
       </c>
       <c r="G194" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="H194" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10817,7 +10805,7 @@
         <v>968</v>
       </c>
       <c r="H195" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10840,10 +10828,10 @@
         <v>1285</v>
       </c>
       <c r="G196" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="H196" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10869,7 +10857,7 @@
         <v>996</v>
       </c>
       <c r="H197" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10889,7 +10877,7 @@
         <v>1297</v>
       </c>
       <c r="H198" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10909,13 +10897,13 @@
         <v>1278</v>
       </c>
       <c r="F199" t="s">
-        <v>1373</v>
+        <v>1339</v>
       </c>
       <c r="G199" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="H199" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -10935,13 +10923,13 @@
         <v>1278</v>
       </c>
       <c r="F200" t="s">
-        <v>1343</v>
+        <v>1367</v>
       </c>
       <c r="G200" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="H200" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -10961,13 +10949,13 @@
         <v>1285</v>
       </c>
       <c r="F201" t="s">
-        <v>1343</v>
+        <v>1366</v>
       </c>
       <c r="G201" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="H201" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -10987,13 +10975,13 @@
         <v>1309</v>
       </c>
       <c r="F202" t="s">
-        <v>1400</v>
+        <v>1390</v>
       </c>
       <c r="G202" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="H202" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -11019,7 +11007,7 @@
         <v>1089</v>
       </c>
       <c r="H203" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -11039,13 +11027,13 @@
         <v>1312</v>
       </c>
       <c r="F204" t="s">
-        <v>1401</v>
+        <v>1371</v>
       </c>
       <c r="G204" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="H204" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11065,13 +11053,13 @@
         <v>1279</v>
       </c>
       <c r="F205" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="G205" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="H205" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11091,13 +11079,13 @@
         <v>1276</v>
       </c>
       <c r="F206" t="s">
-        <v>1402</v>
+        <v>1391</v>
       </c>
       <c r="G206" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="H206" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11123,7 +11111,7 @@
         <v>947</v>
       </c>
       <c r="H207" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11143,13 +11131,13 @@
         <v>1278</v>
       </c>
       <c r="F208" t="s">
-        <v>1352</v>
+        <v>1339</v>
       </c>
       <c r="G208" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="H208" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11169,13 +11157,13 @@
         <v>1277</v>
       </c>
       <c r="F209" t="s">
-        <v>1403</v>
+        <v>1392</v>
       </c>
       <c r="G209" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="H209" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11198,10 +11186,10 @@
         <v>1278</v>
       </c>
       <c r="G210" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="H210" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11221,13 +11209,13 @@
         <v>1311</v>
       </c>
       <c r="F211" t="s">
-        <v>1404</v>
+        <v>1393</v>
       </c>
       <c r="G211" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="H211" t="s">
-        <v>1779</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11247,13 +11235,13 @@
         <v>1278</v>
       </c>
       <c r="F212" t="s">
-        <v>1362</v>
+        <v>1345</v>
       </c>
       <c r="G212" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="H212" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11276,10 +11264,10 @@
         <v>1285</v>
       </c>
       <c r="G213" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="H213" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11299,13 +11287,13 @@
         <v>1296</v>
       </c>
       <c r="F214" t="s">
-        <v>1372</v>
+        <v>1348</v>
       </c>
       <c r="G214" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="H214" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11325,13 +11313,13 @@
         <v>1278</v>
       </c>
       <c r="F215" t="s">
-        <v>1356</v>
+        <v>1338</v>
       </c>
       <c r="G215" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="H215" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11357,7 +11345,7 @@
         <v>989</v>
       </c>
       <c r="H216" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11377,13 +11365,13 @@
         <v>1311</v>
       </c>
       <c r="F217" t="s">
-        <v>1394</v>
+        <v>1384</v>
       </c>
       <c r="G217" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="H217" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11403,13 +11391,13 @@
         <v>1281</v>
       </c>
       <c r="F218" t="s">
-        <v>1405</v>
+        <v>1394</v>
       </c>
       <c r="G218" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="H218" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11429,13 +11417,13 @@
         <v>1285</v>
       </c>
       <c r="F219" t="s">
-        <v>1406</v>
+        <v>1380</v>
       </c>
       <c r="G219" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="H219" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11455,13 +11443,13 @@
         <v>1310</v>
       </c>
       <c r="F220" t="s">
-        <v>1407</v>
+        <v>1395</v>
       </c>
       <c r="G220" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="H220" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11487,7 +11475,7 @@
         <v>947</v>
       </c>
       <c r="H221" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11507,13 +11495,13 @@
         <v>1276</v>
       </c>
       <c r="F222" t="s">
-        <v>1408</v>
+        <v>1346</v>
       </c>
       <c r="G222" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="H222" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11533,13 +11521,13 @@
         <v>1311</v>
       </c>
       <c r="F223" t="s">
-        <v>1409</v>
+        <v>1396</v>
       </c>
       <c r="G223" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="H223" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11559,13 +11547,13 @@
         <v>1314</v>
       </c>
       <c r="F224" t="s">
-        <v>1410</v>
+        <v>1397</v>
       </c>
       <c r="G224" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="H224" t="s">
-        <v>1781</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11591,7 +11579,7 @@
         <v>1089</v>
       </c>
       <c r="H225" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11617,7 +11605,7 @@
         <v>931</v>
       </c>
       <c r="H226" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11643,7 +11631,7 @@
         <v>1089</v>
       </c>
       <c r="H227" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11663,13 +11651,13 @@
         <v>1285</v>
       </c>
       <c r="F228" t="s">
-        <v>1343</v>
+        <v>1366</v>
       </c>
       <c r="G228" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="H228" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11689,13 +11677,13 @@
         <v>1276</v>
       </c>
       <c r="F229" t="s">
-        <v>1411</v>
+        <v>1398</v>
       </c>
       <c r="G229" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="H229" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11718,10 +11706,10 @@
         <v>1294</v>
       </c>
       <c r="G230" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="H230" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11747,7 +11735,7 @@
         <v>947</v>
       </c>
       <c r="H231" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11770,10 +11758,10 @@
         <v>1294</v>
       </c>
       <c r="G232" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="H232" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11796,10 +11784,10 @@
         <v>1294</v>
       </c>
       <c r="G233" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="H233" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11819,13 +11807,13 @@
         <v>1285</v>
       </c>
       <c r="F234" t="s">
-        <v>1339</v>
+        <v>1366</v>
       </c>
       <c r="G234" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="H234" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11845,13 +11833,13 @@
         <v>1300</v>
       </c>
       <c r="F235" t="s">
-        <v>1342</v>
+        <v>1399</v>
       </c>
       <c r="G235" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="H235" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11871,13 +11859,13 @@
         <v>1285</v>
       </c>
       <c r="F236" t="s">
-        <v>1353</v>
+        <v>1400</v>
       </c>
       <c r="G236" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="H236" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11897,13 +11885,13 @@
         <v>1285</v>
       </c>
       <c r="F237" t="s">
-        <v>1346</v>
+        <v>1375</v>
       </c>
       <c r="G237" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="H237" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11923,13 +11911,13 @@
         <v>1316</v>
       </c>
       <c r="F238" t="s">
-        <v>1412</v>
+        <v>1401</v>
       </c>
       <c r="G238" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="H238" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -11955,7 +11943,7 @@
         <v>968</v>
       </c>
       <c r="H239" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -11975,13 +11963,13 @@
         <v>1317</v>
       </c>
       <c r="F240" t="s">
-        <v>1413</v>
+        <v>1402</v>
       </c>
       <c r="G240" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="H240" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -12001,13 +11989,13 @@
         <v>1285</v>
       </c>
       <c r="F241" t="s">
-        <v>1343</v>
+        <v>1366</v>
       </c>
       <c r="G241" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="H241" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -12027,13 +12015,13 @@
         <v>1318</v>
       </c>
       <c r="F242" t="s">
-        <v>1362</v>
+        <v>1345</v>
       </c>
       <c r="G242" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="H242" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -12056,10 +12044,10 @@
         <v>1346</v>
       </c>
       <c r="G243" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="H243" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12079,13 +12067,13 @@
         <v>1276</v>
       </c>
       <c r="F244" t="s">
-        <v>1394</v>
+        <v>1346</v>
       </c>
       <c r="G244" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="H244" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12108,10 +12096,10 @@
         <v>1342</v>
       </c>
       <c r="G245" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="H245" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12137,7 +12125,7 @@
         <v>931</v>
       </c>
       <c r="H246" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12157,13 +12145,13 @@
         <v>1310</v>
       </c>
       <c r="F247" t="s">
-        <v>1408</v>
+        <v>1345</v>
       </c>
       <c r="G247" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="H247" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12189,7 +12177,7 @@
         <v>985</v>
       </c>
       <c r="H248" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12209,13 +12197,13 @@
         <v>1305</v>
       </c>
       <c r="F249" t="s">
-        <v>1414</v>
+        <v>1403</v>
       </c>
       <c r="G249" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="H249" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12238,10 +12226,10 @@
         <v>1339</v>
       </c>
       <c r="G250" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="H250" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12261,13 +12249,13 @@
         <v>1300</v>
       </c>
       <c r="F251" t="s">
-        <v>1415</v>
+        <v>1404</v>
       </c>
       <c r="G251" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="H251" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12287,13 +12275,13 @@
         <v>1276</v>
       </c>
       <c r="F252" t="s">
-        <v>1416</v>
+        <v>1405</v>
       </c>
       <c r="G252" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="H252" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12313,13 +12301,13 @@
         <v>1276</v>
       </c>
       <c r="F253" t="s">
-        <v>1408</v>
+        <v>1375</v>
       </c>
       <c r="G253" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="H253" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12345,7 +12333,7 @@
         <v>947</v>
       </c>
       <c r="H254" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12365,13 +12353,13 @@
         <v>1276</v>
       </c>
       <c r="F255" t="s">
-        <v>1362</v>
+        <v>1339</v>
       </c>
       <c r="G255" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="H255" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12394,10 +12382,10 @@
         <v>1294</v>
       </c>
       <c r="G256" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="H256" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12420,10 +12408,10 @@
         <v>1339</v>
       </c>
       <c r="G257" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="H257" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12443,13 +12431,13 @@
         <v>1279</v>
       </c>
       <c r="F258" t="s">
-        <v>1417</v>
+        <v>1349</v>
       </c>
       <c r="G258" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="H258" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12475,7 +12463,7 @@
         <v>1065</v>
       </c>
       <c r="H259" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12498,10 +12486,10 @@
         <v>1294</v>
       </c>
       <c r="G260" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="H260" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12521,13 +12509,13 @@
         <v>1285</v>
       </c>
       <c r="F261" t="s">
-        <v>1386</v>
+        <v>1400</v>
       </c>
       <c r="G261" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
       <c r="H261" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12553,7 +12541,7 @@
         <v>968</v>
       </c>
       <c r="H262" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12573,13 +12561,13 @@
         <v>1300</v>
       </c>
       <c r="F263" t="s">
-        <v>1347</v>
+        <v>1406</v>
       </c>
       <c r="G263" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="H263" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12599,13 +12587,13 @@
         <v>1276</v>
       </c>
       <c r="F264" t="s">
-        <v>1418</v>
+        <v>1407</v>
       </c>
       <c r="G264" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="H264" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12625,13 +12613,13 @@
         <v>1311</v>
       </c>
       <c r="F265" t="s">
-        <v>1342</v>
+        <v>1399</v>
       </c>
       <c r="G265" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="H265" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12651,13 +12639,13 @@
         <v>1294</v>
       </c>
       <c r="F266" t="s">
-        <v>1358</v>
+        <v>1381</v>
       </c>
       <c r="G266" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="H266" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12677,13 +12665,13 @@
         <v>1279</v>
       </c>
       <c r="F267" t="s">
-        <v>1419</v>
+        <v>1408</v>
       </c>
       <c r="G267" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="H267" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12703,13 +12691,13 @@
         <v>1286</v>
       </c>
       <c r="F268" t="s">
-        <v>1420</v>
+        <v>1409</v>
       </c>
       <c r="G268" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="H268" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12729,13 +12717,13 @@
         <v>1276</v>
       </c>
       <c r="F269" t="s">
-        <v>1369</v>
+        <v>1339</v>
       </c>
       <c r="G269" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="H269" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12761,7 +12749,7 @@
         <v>985</v>
       </c>
       <c r="H270" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12781,13 +12769,13 @@
         <v>1304</v>
       </c>
       <c r="F271" t="s">
-        <v>1421</v>
+        <v>1406</v>
       </c>
       <c r="G271" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="H271" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12807,13 +12795,13 @@
         <v>1286</v>
       </c>
       <c r="F272" t="s">
-        <v>1417</v>
+        <v>1349</v>
       </c>
       <c r="G272" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="H272" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12833,13 +12821,13 @@
         <v>1279</v>
       </c>
       <c r="F273" t="s">
-        <v>1358</v>
+        <v>1381</v>
       </c>
       <c r="G273" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="H273" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12859,13 +12847,13 @@
         <v>1285</v>
       </c>
       <c r="F274" t="s">
-        <v>1353</v>
+        <v>1410</v>
       </c>
       <c r="G274" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="H274" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12885,13 +12873,13 @@
         <v>1319</v>
       </c>
       <c r="F275" t="s">
-        <v>1422</v>
+        <v>1411</v>
       </c>
       <c r="G275" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="H275" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12911,13 +12899,13 @@
         <v>1276</v>
       </c>
       <c r="F276" t="s">
-        <v>1423</v>
+        <v>1412</v>
       </c>
       <c r="G276" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="H276" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -12940,10 +12928,10 @@
         <v>1285</v>
       </c>
       <c r="G277" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="H277" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -12963,13 +12951,13 @@
         <v>1276</v>
       </c>
       <c r="F278" t="s">
-        <v>1408</v>
+        <v>1346</v>
       </c>
       <c r="G278" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
       <c r="H278" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -12989,13 +12977,13 @@
         <v>1276</v>
       </c>
       <c r="F279" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="G279" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="H279" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -13021,7 +13009,7 @@
         <v>1227</v>
       </c>
       <c r="H280" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -13041,13 +13029,13 @@
         <v>1276</v>
       </c>
       <c r="F281" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="G281" t="s">
         <v>985</v>
       </c>
       <c r="H281" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13067,13 +13055,13 @@
         <v>1276</v>
       </c>
       <c r="F282" t="s">
-        <v>1424</v>
+        <v>1414</v>
       </c>
       <c r="G282" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
       <c r="H282" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13093,13 +13081,13 @@
         <v>1285</v>
       </c>
       <c r="F283" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G283" t="s">
         <v>1211</v>
       </c>
       <c r="H283" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13119,13 +13107,13 @@
         <v>1320</v>
       </c>
       <c r="F284" t="s">
-        <v>1425</v>
+        <v>1415</v>
       </c>
       <c r="G284" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="H284" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13145,13 +13133,13 @@
         <v>1276</v>
       </c>
       <c r="F285" t="s">
-        <v>1362</v>
+        <v>1345</v>
       </c>
       <c r="G285" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="H285" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13171,13 +13159,13 @@
         <v>1276</v>
       </c>
       <c r="F286" t="s">
-        <v>1426</v>
+        <v>1416</v>
       </c>
       <c r="G286" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="H286" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13197,13 +13185,13 @@
         <v>1279</v>
       </c>
       <c r="F287" t="s">
-        <v>1427</v>
+        <v>1417</v>
       </c>
       <c r="G287" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="H287" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13223,13 +13211,13 @@
         <v>1276</v>
       </c>
       <c r="F288" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G288" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="H288" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13249,13 +13237,13 @@
         <v>1285</v>
       </c>
       <c r="F289" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G289" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="H289" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13275,13 +13263,13 @@
         <v>1321</v>
       </c>
       <c r="F290" t="s">
-        <v>1428</v>
+        <v>1418</v>
       </c>
       <c r="G290" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="H290" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13301,13 +13289,13 @@
         <v>1276</v>
       </c>
       <c r="F291" t="s">
-        <v>1408</v>
+        <v>1346</v>
       </c>
       <c r="G291" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="H291" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13327,13 +13315,13 @@
         <v>1276</v>
       </c>
       <c r="F292" t="s">
-        <v>1394</v>
+        <v>1346</v>
       </c>
       <c r="G292" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="H292" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13353,13 +13341,13 @@
         <v>1298</v>
       </c>
       <c r="F293" t="s">
-        <v>1417</v>
+        <v>1366</v>
       </c>
       <c r="G293" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="H293" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13379,13 +13367,13 @@
         <v>1285</v>
       </c>
       <c r="F294" t="s">
-        <v>1343</v>
+        <v>1366</v>
       </c>
       <c r="G294" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="H294" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13411,7 +13399,7 @@
         <v>947</v>
       </c>
       <c r="H295" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13431,13 +13419,13 @@
         <v>1276</v>
       </c>
       <c r="F296" t="s">
-        <v>1346</v>
+        <v>1375</v>
       </c>
       <c r="G296" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="H296" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13457,13 +13445,13 @@
         <v>1285</v>
       </c>
       <c r="F297" t="s">
-        <v>1429</v>
+        <v>1419</v>
       </c>
       <c r="G297" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="H297" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13483,13 +13471,13 @@
         <v>1294</v>
       </c>
       <c r="F298" t="s">
-        <v>1417</v>
+        <v>1366</v>
       </c>
       <c r="G298" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="H298" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13515,7 +13503,7 @@
         <v>947</v>
       </c>
       <c r="H299" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13535,13 +13523,13 @@
         <v>1276</v>
       </c>
       <c r="F300" t="s">
-        <v>1394</v>
+        <v>1351</v>
       </c>
       <c r="G300" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="H300" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13561,13 +13549,13 @@
         <v>1285</v>
       </c>
       <c r="F301" t="s">
-        <v>1386</v>
+        <v>1377</v>
       </c>
       <c r="G301" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="H301" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13587,13 +13575,13 @@
         <v>1279</v>
       </c>
       <c r="F302" t="s">
-        <v>1430</v>
+        <v>1420</v>
       </c>
       <c r="G302" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
       <c r="H302" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13613,13 +13601,13 @@
         <v>1276</v>
       </c>
       <c r="F303" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="G303" t="s">
         <v>985</v>
       </c>
       <c r="H303" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13645,7 +13633,7 @@
         <v>1000</v>
       </c>
       <c r="H304" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13671,7 +13659,7 @@
         <v>933</v>
       </c>
       <c r="H305" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13691,13 +13679,13 @@
         <v>1276</v>
       </c>
       <c r="F306" t="s">
-        <v>1408</v>
+        <v>1346</v>
       </c>
       <c r="G306" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="H306" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13723,7 +13711,7 @@
         <v>947</v>
       </c>
       <c r="H307" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13746,10 +13734,10 @@
         <v>1294</v>
       </c>
       <c r="G308" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="H308" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13775,7 +13763,7 @@
         <v>1089</v>
       </c>
       <c r="H309" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13801,7 +13789,7 @@
         <v>1089</v>
       </c>
       <c r="H310" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13827,7 +13815,7 @@
         <v>968</v>
       </c>
       <c r="H311" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13847,13 +13835,13 @@
         <v>1285</v>
       </c>
       <c r="F312" t="s">
-        <v>1343</v>
+        <v>1366</v>
       </c>
       <c r="G312" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="H312" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13879,7 +13867,7 @@
         <v>947</v>
       </c>
       <c r="H313" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13905,7 +13893,7 @@
         <v>947</v>
       </c>
       <c r="H314" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -13925,13 +13913,13 @@
         <v>1294</v>
       </c>
       <c r="F315" t="s">
-        <v>1431</v>
+        <v>1421</v>
       </c>
       <c r="G315" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="H315" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -13951,13 +13939,13 @@
         <v>1276</v>
       </c>
       <c r="F316" t="s">
-        <v>1432</v>
+        <v>1422</v>
       </c>
       <c r="G316" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="H316" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -13977,13 +13965,13 @@
         <v>1276</v>
       </c>
       <c r="F317" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G317" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="H317" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -14006,10 +13994,10 @@
         <v>1339</v>
       </c>
       <c r="G318" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="H318" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -14035,7 +14023,7 @@
         <v>1171</v>
       </c>
       <c r="H319" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -14055,13 +14043,13 @@
         <v>1285</v>
       </c>
       <c r="F320" t="s">
-        <v>1386</v>
+        <v>1410</v>
       </c>
       <c r="G320" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
       <c r="H320" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14081,13 +14069,13 @@
         <v>1315</v>
       </c>
       <c r="F321" t="s">
-        <v>1353</v>
+        <v>1423</v>
       </c>
       <c r="G321" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
       <c r="H321" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14107,13 +14095,13 @@
         <v>1285</v>
       </c>
       <c r="F322" t="s">
-        <v>1417</v>
+        <v>1349</v>
       </c>
       <c r="G322" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
       <c r="H322" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14136,10 +14124,10 @@
         <v>1346</v>
       </c>
       <c r="G323" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="H323" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14159,13 +14147,13 @@
         <v>1279</v>
       </c>
       <c r="F324" t="s">
-        <v>1358</v>
+        <v>1381</v>
       </c>
       <c r="G324" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="H324" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14191,7 +14179,7 @@
         <v>947</v>
       </c>
       <c r="H325" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14217,7 +14205,7 @@
         <v>1089</v>
       </c>
       <c r="H326" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14237,13 +14225,13 @@
         <v>1276</v>
       </c>
       <c r="F327" t="s">
-        <v>1433</v>
+        <v>1424</v>
       </c>
       <c r="G327" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="H327" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14263,13 +14251,13 @@
         <v>1285</v>
       </c>
       <c r="F328" t="s">
-        <v>1343</v>
+        <v>1425</v>
       </c>
       <c r="G328" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="H328" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14289,13 +14277,13 @@
         <v>1323</v>
       </c>
       <c r="F329" t="s">
-        <v>1353</v>
+        <v>1382</v>
       </c>
       <c r="G329" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
       <c r="H329" t="s">
-        <v>1782</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14315,13 +14303,13 @@
         <v>1285</v>
       </c>
       <c r="F330" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G330" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="H330" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14341,13 +14329,13 @@
         <v>1297</v>
       </c>
       <c r="F331" t="s">
-        <v>1420</v>
+        <v>1426</v>
       </c>
       <c r="G331" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
       <c r="H331" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14367,13 +14355,13 @@
         <v>1285</v>
       </c>
       <c r="F332" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G332" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="H332" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14393,13 +14381,13 @@
         <v>1276</v>
       </c>
       <c r="F333" t="s">
-        <v>1371</v>
+        <v>1351</v>
       </c>
       <c r="G333" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="H333" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14425,7 +14413,7 @@
         <v>1180</v>
       </c>
       <c r="H334" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14445,13 +14433,13 @@
         <v>1322</v>
       </c>
       <c r="F335" t="s">
-        <v>1348</v>
+        <v>1427</v>
       </c>
       <c r="G335" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="H335" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14471,13 +14459,13 @@
         <v>1311</v>
       </c>
       <c r="F336" t="s">
-        <v>1347</v>
+        <v>1410</v>
       </c>
       <c r="G336" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="H336" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14497,13 +14485,13 @@
         <v>1311</v>
       </c>
       <c r="F337" t="s">
-        <v>1342</v>
+        <v>1399</v>
       </c>
       <c r="G337" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
       <c r="H337" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14523,13 +14511,13 @@
         <v>1297</v>
       </c>
       <c r="F338" t="s">
-        <v>1374</v>
+        <v>1428</v>
       </c>
       <c r="G338" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="H338" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14549,13 +14537,13 @@
         <v>1276</v>
       </c>
       <c r="F339" t="s">
-        <v>1434</v>
+        <v>1429</v>
       </c>
       <c r="G339" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="H339" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14575,13 +14563,13 @@
         <v>1276</v>
       </c>
       <c r="F340" t="s">
-        <v>1294</v>
+        <v>1276</v>
       </c>
       <c r="G340" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="H340" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14601,13 +14589,13 @@
         <v>1317</v>
       </c>
       <c r="F341" t="s">
-        <v>1374</v>
+        <v>1430</v>
       </c>
       <c r="G341" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="H341" t="s">
-        <v>1783</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14627,13 +14615,13 @@
         <v>1276</v>
       </c>
       <c r="F342" t="s">
-        <v>1346</v>
+        <v>1375</v>
       </c>
       <c r="G342" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="H342" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14653,13 +14641,13 @@
         <v>1300</v>
       </c>
       <c r="F343" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="G343" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="H343" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14679,13 +14667,13 @@
         <v>1324</v>
       </c>
       <c r="F344" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="G344" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
       <c r="H344" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14705,13 +14693,13 @@
         <v>1279</v>
       </c>
       <c r="F345" t="s">
-        <v>1343</v>
+        <v>1367</v>
       </c>
       <c r="G345" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="H345" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14731,13 +14719,13 @@
         <v>1300</v>
       </c>
       <c r="F346" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="G346" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
       <c r="H346" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14763,7 +14751,7 @@
         <v>947</v>
       </c>
       <c r="H347" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14789,7 +14777,7 @@
         <v>985</v>
       </c>
       <c r="H348" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14815,7 +14803,7 @@
         <v>1089</v>
       </c>
       <c r="H349" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14838,10 +14826,10 @@
         <v>1346</v>
       </c>
       <c r="G350" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="H350" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14861,13 +14849,13 @@
         <v>1279</v>
       </c>
       <c r="F351" t="s">
-        <v>1358</v>
+        <v>1381</v>
       </c>
       <c r="G351" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="H351" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14887,13 +14875,13 @@
         <v>1322</v>
       </c>
       <c r="F352" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="G352" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="H352" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -14919,7 +14907,7 @@
         <v>968</v>
       </c>
       <c r="H353" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -14945,7 +14933,7 @@
         <v>985</v>
       </c>
       <c r="H354" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -14965,13 +14953,13 @@
         <v>1285</v>
       </c>
       <c r="F355" t="s">
-        <v>1394</v>
+        <v>1384</v>
       </c>
       <c r="G355" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="H355" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -14997,7 +14985,7 @@
         <v>947</v>
       </c>
       <c r="H356" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -15017,13 +15005,13 @@
         <v>1325</v>
       </c>
       <c r="F357" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="G357" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="H357" t="s">
-        <v>1784</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -15046,10 +15034,10 @@
         <v>1346</v>
       </c>
       <c r="G358" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="H358" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15072,10 +15060,10 @@
         <v>1285</v>
       </c>
       <c r="G359" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="H359" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15101,7 +15089,7 @@
         <v>985</v>
       </c>
       <c r="H360" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15121,13 +15109,13 @@
         <v>1279</v>
       </c>
       <c r="F361" t="s">
-        <v>1339</v>
+        <v>1367</v>
       </c>
       <c r="G361" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="H361" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15147,13 +15135,13 @@
         <v>1298</v>
       </c>
       <c r="F362" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G362" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="H362" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15173,13 +15161,13 @@
         <v>1286</v>
       </c>
       <c r="F363" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="G363" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="H363" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15199,13 +15187,13 @@
         <v>1279</v>
       </c>
       <c r="F364" t="s">
-        <v>1417</v>
+        <v>1349</v>
       </c>
       <c r="G364" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="H364" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15225,13 +15213,13 @@
         <v>1279</v>
       </c>
       <c r="F365" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="G365" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="H365" t="s">
-        <v>1785</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15251,13 +15239,13 @@
         <v>1294</v>
       </c>
       <c r="F366" t="s">
-        <v>1343</v>
+        <v>1366</v>
       </c>
       <c r="G366" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="H366" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15280,10 +15268,10 @@
         <v>1339</v>
       </c>
       <c r="G367" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="H367" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15303,13 +15291,13 @@
         <v>1298</v>
       </c>
       <c r="F368" t="s">
-        <v>1343</v>
+        <v>1366</v>
       </c>
       <c r="G368" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="H368" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15329,13 +15317,13 @@
         <v>1322</v>
       </c>
       <c r="F369" t="s">
-        <v>1339</v>
+        <v>1367</v>
       </c>
       <c r="G369" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="H369" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15355,13 +15343,13 @@
         <v>1285</v>
       </c>
       <c r="F370" t="s">
-        <v>1441</v>
+        <v>1380</v>
       </c>
       <c r="G370" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="H370" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15381,13 +15369,13 @@
         <v>1279</v>
       </c>
       <c r="F371" t="s">
-        <v>1350</v>
+        <v>1339</v>
       </c>
       <c r="G371" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="H371" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15407,13 +15395,13 @@
         <v>1285</v>
       </c>
       <c r="F372" t="s">
-        <v>1386</v>
+        <v>1355</v>
       </c>
       <c r="G372" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
       <c r="H372" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15433,13 +15421,13 @@
         <v>1285</v>
       </c>
       <c r="F373" t="s">
-        <v>1398</v>
+        <v>1437</v>
       </c>
       <c r="G373" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
       <c r="H373" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15459,7 +15447,7 @@
         <v>1285</v>
       </c>
       <c r="H374" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15485,7 +15473,7 @@
         <v>1211</v>
       </c>
       <c r="H375" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15505,13 +15493,13 @@
         <v>1279</v>
       </c>
       <c r="F376" t="s">
-        <v>1442</v>
+        <v>1409</v>
       </c>
       <c r="G376" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="H376" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15531,13 +15519,13 @@
         <v>1279</v>
       </c>
       <c r="F377" t="s">
-        <v>1427</v>
+        <v>1417</v>
       </c>
       <c r="G377" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="H377" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15557,13 +15545,13 @@
         <v>1285</v>
       </c>
       <c r="F378" t="s">
-        <v>1443</v>
+        <v>1438</v>
       </c>
       <c r="G378" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
       <c r="H378" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15583,13 +15571,13 @@
         <v>1326</v>
       </c>
       <c r="F379" t="s">
-        <v>1444</v>
+        <v>1439</v>
       </c>
       <c r="G379" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
       <c r="H379" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15609,13 +15597,13 @@
         <v>1285</v>
       </c>
       <c r="F380" t="s">
-        <v>1343</v>
+        <v>1366</v>
       </c>
       <c r="G380" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="H380" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15638,10 +15626,10 @@
         <v>1294</v>
       </c>
       <c r="G381" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="H381" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15661,13 +15649,13 @@
         <v>1327</v>
       </c>
       <c r="F382" t="s">
-        <v>1445</v>
+        <v>1440</v>
       </c>
       <c r="G382" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
       <c r="H382" t="s">
-        <v>1786</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15687,13 +15675,13 @@
         <v>1328</v>
       </c>
       <c r="F383" t="s">
-        <v>1446</v>
+        <v>1441</v>
       </c>
       <c r="G383" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="H383" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15713,13 +15701,13 @@
         <v>1329</v>
       </c>
       <c r="F384" t="s">
-        <v>1447</v>
+        <v>1442</v>
       </c>
       <c r="G384" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="H384" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15739,13 +15727,13 @@
         <v>1279</v>
       </c>
       <c r="F385" t="s">
-        <v>1358</v>
+        <v>1381</v>
       </c>
       <c r="G385" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="H385" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15765,13 +15753,13 @@
         <v>1325</v>
       </c>
       <c r="F386" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="G386" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="H386" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15791,13 +15779,13 @@
         <v>1294</v>
       </c>
       <c r="F387" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G387" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="H387" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15817,13 +15805,13 @@
         <v>1283</v>
       </c>
       <c r="F388" t="s">
-        <v>1343</v>
+        <v>1366</v>
       </c>
       <c r="G388" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="H388" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15843,13 +15831,13 @@
         <v>1285</v>
       </c>
       <c r="F389" t="s">
-        <v>1343</v>
+        <v>1366</v>
       </c>
       <c r="G389" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="H389" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15869,13 +15857,13 @@
         <v>1295</v>
       </c>
       <c r="F390" t="s">
-        <v>1378</v>
+        <v>1349</v>
       </c>
       <c r="G390" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="H390" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -15895,13 +15883,13 @@
         <v>1285</v>
       </c>
       <c r="F391" t="s">
-        <v>1352</v>
+        <v>1339</v>
       </c>
       <c r="G391" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="H391" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -15924,10 +15912,10 @@
         <v>1285</v>
       </c>
       <c r="G392" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="H392" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -15947,13 +15935,13 @@
         <v>1279</v>
       </c>
       <c r="F393" t="s">
-        <v>1353</v>
+        <v>1382</v>
       </c>
       <c r="G393" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="H393" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -15973,13 +15961,13 @@
         <v>1285</v>
       </c>
       <c r="F394" t="s">
-        <v>1417</v>
+        <v>1444</v>
       </c>
       <c r="G394" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
       <c r="H394" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -15999,13 +15987,13 @@
         <v>1285</v>
       </c>
       <c r="F395" t="s">
-        <v>1357</v>
+        <v>1376</v>
       </c>
       <c r="G395" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
       <c r="H395" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -16025,13 +16013,13 @@
         <v>1285</v>
       </c>
       <c r="F396" t="s">
-        <v>1343</v>
+        <v>1366</v>
       </c>
       <c r="G396" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="H396" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -16051,13 +16039,13 @@
         <v>1279</v>
       </c>
       <c r="F397" t="s">
-        <v>1427</v>
+        <v>1417</v>
       </c>
       <c r="G397" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="H397" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16083,7 +16071,7 @@
         <v>1089</v>
       </c>
       <c r="H398" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16103,13 +16091,13 @@
         <v>1285</v>
       </c>
       <c r="F399" t="s">
-        <v>1338</v>
+        <v>1376</v>
       </c>
       <c r="G399" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="H399" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16129,13 +16117,13 @@
         <v>1304</v>
       </c>
       <c r="F400" t="s">
-        <v>1412</v>
+        <v>1348</v>
       </c>
       <c r="G400" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="H400" t="s">
-        <v>1787</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16161,7 +16149,7 @@
         <v>1227</v>
       </c>
       <c r="H401" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16181,13 +16169,13 @@
         <v>1294</v>
       </c>
       <c r="F402" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G402" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
       <c r="H402" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16207,13 +16195,13 @@
         <v>1285</v>
       </c>
       <c r="F403" t="s">
-        <v>1343</v>
+        <v>1366</v>
       </c>
       <c r="G403" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="H403" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16233,13 +16221,13 @@
         <v>1279</v>
       </c>
       <c r="F404" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
       <c r="G404" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="H404" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16259,13 +16247,13 @@
         <v>1325</v>
       </c>
       <c r="F405" t="s">
-        <v>1357</v>
+        <v>1376</v>
       </c>
       <c r="G405" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="H405" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16291,7 +16279,7 @@
         <v>1089</v>
       </c>
       <c r="H406" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16311,13 +16299,13 @@
         <v>1294</v>
       </c>
       <c r="F407" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="G407" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="H407" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16340,10 +16328,10 @@
         <v>1285</v>
       </c>
       <c r="G408" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="H408" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16369,7 +16357,7 @@
         <v>968</v>
       </c>
       <c r="H409" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16395,7 +16383,7 @@
         <v>1234</v>
       </c>
       <c r="H410" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16415,13 +16403,13 @@
         <v>1324</v>
       </c>
       <c r="F411" t="s">
-        <v>1450</v>
+        <v>1415</v>
       </c>
       <c r="G411" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="H411" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16441,13 +16429,13 @@
         <v>1285</v>
       </c>
       <c r="F412" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
       <c r="G412" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="H412" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16467,13 +16455,13 @@
         <v>1312</v>
       </c>
       <c r="F413" t="s">
-        <v>1358</v>
+        <v>1381</v>
       </c>
       <c r="G413" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="H413" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16493,13 +16481,13 @@
         <v>1285</v>
       </c>
       <c r="F414" t="s">
-        <v>1356</v>
+        <v>1338</v>
       </c>
       <c r="G414" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
       <c r="H414" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16519,13 +16507,13 @@
         <v>1330</v>
       </c>
       <c r="F415" t="s">
-        <v>1378</v>
+        <v>1446</v>
       </c>
       <c r="G415" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="H415" t="s">
-        <v>1788</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16548,10 +16536,10 @@
         <v>1285</v>
       </c>
       <c r="G416" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="H416" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16574,10 +16562,10 @@
         <v>1285</v>
       </c>
       <c r="G417" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="H417" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16597,13 +16585,13 @@
         <v>1331</v>
       </c>
       <c r="F418" t="s">
-        <v>1441</v>
+        <v>1338</v>
       </c>
       <c r="G418" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="H418" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16623,13 +16611,13 @@
         <v>1295</v>
       </c>
       <c r="F419" t="s">
-        <v>1358</v>
+        <v>1381</v>
       </c>
       <c r="G419" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="H419" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16649,13 +16637,13 @@
         <v>1285</v>
       </c>
       <c r="F420" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="G420" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="H420" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16675,13 +16663,13 @@
         <v>1294</v>
       </c>
       <c r="F421" t="s">
-        <v>1386</v>
+        <v>1376</v>
       </c>
       <c r="G421" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="H421" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16701,13 +16689,13 @@
         <v>1286</v>
       </c>
       <c r="F422" t="s">
-        <v>1358</v>
+        <v>1381</v>
       </c>
       <c r="G422" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="H422" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16733,7 +16721,7 @@
         <v>1065</v>
       </c>
       <c r="H423" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16759,7 +16747,7 @@
         <v>1245</v>
       </c>
       <c r="H424" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16779,13 +16767,13 @@
         <v>1298</v>
       </c>
       <c r="F425" t="s">
-        <v>1386</v>
+        <v>1400</v>
       </c>
       <c r="G425" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
       <c r="H425" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16805,13 +16793,13 @@
         <v>1330</v>
       </c>
       <c r="F426" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="G426" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
       <c r="H426" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16831,13 +16819,13 @@
         <v>1285</v>
       </c>
       <c r="F427" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G427" t="s">
         <v>1211</v>
       </c>
       <c r="H427" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16860,10 +16848,10 @@
         <v>1294</v>
       </c>
       <c r="G428" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="H428" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -16883,7 +16871,7 @@
         <v>1285</v>
       </c>
       <c r="H429" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -16903,13 +16891,13 @@
         <v>1294</v>
       </c>
       <c r="F430" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
       <c r="G430" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
       <c r="H430" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -16929,13 +16917,13 @@
         <v>1297</v>
       </c>
       <c r="F431" t="s">
-        <v>1343</v>
+        <v>1366</v>
       </c>
       <c r="G431" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
       <c r="H431" t="s">
-        <v>1789</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -16961,7 +16949,7 @@
         <v>1089</v>
       </c>
       <c r="H432" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -16984,10 +16972,10 @@
         <v>1382</v>
       </c>
       <c r="G433" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="H433" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -17007,13 +16995,13 @@
         <v>1294</v>
       </c>
       <c r="F434" t="s">
-        <v>1373</v>
+        <v>1339</v>
       </c>
       <c r="G434" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
       <c r="H434" t="s">
-        <v>1785</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -17033,13 +17021,13 @@
         <v>1285</v>
       </c>
       <c r="F435" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="G435" t="s">
-        <v>1735</v>
+        <v>1731</v>
       </c>
       <c r="H435" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17062,10 +17050,10 @@
         <v>1341</v>
       </c>
       <c r="G436" t="s">
-        <v>1736</v>
+        <v>1732</v>
       </c>
       <c r="H436" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17085,7 +17073,7 @@
         <v>1294</v>
       </c>
       <c r="H437" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17111,7 +17099,7 @@
         <v>1089</v>
       </c>
       <c r="H438" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17131,13 +17119,13 @@
         <v>1279</v>
       </c>
       <c r="F439" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G439" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="H439" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17157,13 +17145,13 @@
         <v>1279</v>
       </c>
       <c r="F440" t="s">
-        <v>1366</v>
+        <v>1450</v>
       </c>
       <c r="G440" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
       <c r="H440" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17183,13 +17171,13 @@
         <v>1279</v>
       </c>
       <c r="F441" t="s">
-        <v>1454</v>
+        <v>1356</v>
       </c>
       <c r="G441" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="H441" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17209,13 +17197,13 @@
         <v>1279</v>
       </c>
       <c r="F442" t="s">
-        <v>1358</v>
+        <v>1339</v>
       </c>
       <c r="G442" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="H442" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17235,13 +17223,13 @@
         <v>1294</v>
       </c>
       <c r="F443" t="s">
-        <v>1352</v>
+        <v>1369</v>
       </c>
       <c r="G443" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="H443" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17264,10 +17252,10 @@
         <v>1339</v>
       </c>
       <c r="G444" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="H444" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17287,13 +17275,13 @@
         <v>1332</v>
       </c>
       <c r="F445" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="G445" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
       <c r="H445" t="s">
-        <v>1790</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17313,13 +17301,13 @@
         <v>1279</v>
       </c>
       <c r="F446" t="s">
-        <v>1382</v>
+        <v>1452</v>
       </c>
       <c r="G446" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
       <c r="H446" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17342,10 +17330,10 @@
         <v>1294</v>
       </c>
       <c r="G447" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
       <c r="H447" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17365,13 +17353,13 @@
         <v>1285</v>
       </c>
       <c r="F448" t="s">
-        <v>1339</v>
+        <v>1367</v>
       </c>
       <c r="G448" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
       <c r="H448" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17391,13 +17379,13 @@
         <v>1294</v>
       </c>
       <c r="F449" t="s">
-        <v>1382</v>
+        <v>1452</v>
       </c>
       <c r="G449" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="H449" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17423,7 +17411,7 @@
         <v>968</v>
       </c>
       <c r="H450" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17449,7 +17437,7 @@
         <v>968</v>
       </c>
       <c r="H451" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17469,13 +17457,13 @@
         <v>1322</v>
       </c>
       <c r="F452" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G452" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
       <c r="H452" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17495,13 +17483,13 @@
         <v>1294</v>
       </c>
       <c r="F453" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="G453" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
       <c r="H453" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17521,13 +17509,13 @@
         <v>1333</v>
       </c>
       <c r="F454" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="G454" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="H454" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17547,13 +17535,13 @@
         <v>1334</v>
       </c>
       <c r="F455" t="s">
-        <v>1381</v>
+        <v>1373</v>
       </c>
       <c r="G455" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="H455" t="s">
-        <v>1782</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17573,13 +17561,13 @@
         <v>1279</v>
       </c>
       <c r="F456" t="s">
-        <v>1442</v>
+        <v>1415</v>
       </c>
       <c r="G456" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="H456" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17599,13 +17587,13 @@
         <v>1279</v>
       </c>
       <c r="F457" t="s">
-        <v>1458</v>
+        <v>1382</v>
       </c>
       <c r="G457" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
       <c r="H457" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17631,7 +17619,7 @@
         <v>1211</v>
       </c>
       <c r="H458" t="s">
-        <v>1791</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17651,13 +17639,13 @@
         <v>1294</v>
       </c>
       <c r="F459" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="G459" t="s">
+        <v>1749</v>
+      </c>
+      <c r="H459" t="s">
         <v>1753</v>
-      </c>
-      <c r="H459" t="s">
-        <v>1757</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17680,10 +17668,10 @@
         <v>1341</v>
       </c>
       <c r="G460" t="s">
+        <v>1750</v>
+      </c>
+      <c r="H460" t="s">
         <v>1754</v>
-      </c>
-      <c r="H460" t="s">
-        <v>1758</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17703,13 +17691,13 @@
         <v>1322</v>
       </c>
       <c r="F461" t="s">
-        <v>1417</v>
+        <v>1444</v>
       </c>
       <c r="G461" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
       <c r="H461" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17735,7 +17723,7 @@
         <v>968</v>
       </c>
       <c r="H462" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17755,13 +17743,13 @@
         <v>1336</v>
       </c>
       <c r="F463" t="s">
-        <v>1358</v>
+        <v>1339</v>
       </c>
       <c r="G463" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="H463" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
     </row>
   </sheetData>
